--- a/my_app/data/business_suport_acumulated_into_point_interest.xlsx
+++ b/my_app/data/business_suport_acumulated_into_point_interest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>punto_de_interes</t>
   </si>
@@ -40,10 +40,10 @@
     <t>Latitud</t>
   </si>
   <si>
-    <t>19.61492957792386_-99.29968983891884</t>
-  </si>
-  <si>
-    <t>PANIFICADORA Y PASTELERIA SAN ILDEFONSO</t>
+    <t>19.614606177859947_-99.29926068547645</t>
+  </si>
+  <si>
+    <t>PANADERIA ESTRELLA</t>
   </si>
   <si>
     <t>TORTILLERIA EL MIRADOR</t>
@@ -52,13 +52,16 @@
     <t>VENTA DE DONAS</t>
   </si>
   <si>
+    <t>HERRERIA SIN NOMBRE</t>
+  </si>
+  <si>
     <t>CARNICERÍA ELVENADO</t>
   </si>
   <si>
     <t>CARNICERIA ILSE</t>
   </si>
   <si>
-    <t>CARNICERÍA LUPITA</t>
+    <t>CARNICERIA LA UNICA</t>
   </si>
   <si>
     <t>COOPERATIVA ESCOLAR TURNO MATUTINO ESCUELA PRIMARIA MANUEL MARIA CONTRERAS</t>
@@ -67,6 +70,9 @@
     <t>COPERATIVA ESCOLAR TURNO VESPERTINO</t>
   </si>
   <si>
+    <t>FARMACIA MAR -SAN</t>
+  </si>
+  <si>
     <t>FARMACIA MICH</t>
   </si>
   <si>
@@ -91,18 +97,9 @@
     <t>PAPELERIA BOB</t>
   </si>
   <si>
-    <t>PAPELERIA EL ARBOL DE LA VIDA</t>
-  </si>
-  <si>
-    <t>PAPELERIA EL FRONTON</t>
-  </si>
-  <si>
     <t>PAPELERIA ISABELLA</t>
   </si>
   <si>
-    <t>PAPELERÍA KENYA</t>
-  </si>
-  <si>
     <t>PAPELERÍA SIN NOMBRE</t>
   </si>
   <si>
@@ -118,18 +115,15 @@
     <t>PRODUCTOS DE LIMPIEZA SANFON</t>
   </si>
   <si>
-    <t>REGALOS Y ACCESORIOS ROSAS</t>
-  </si>
-  <si>
     <t>TIENDA DE DULCES Y BOTANAS</t>
   </si>
   <si>
-    <t>TIENDA DE REGALOS AURO SPORT</t>
-  </si>
-  <si>
     <t>UNIFORMES CAPRI</t>
   </si>
   <si>
+    <t>VERDULERIA LOS PANCHITOS</t>
+  </si>
+  <si>
     <t>VERDULERIA Y POLLERIA MELY</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>CIBER LA WEB@</t>
   </si>
   <si>
-    <t>CONSULTORIO DENTAL CREANDO SONRISAS</t>
-  </si>
-  <si>
     <t>MAQUINITAS SIN NOMBRE</t>
   </si>
   <si>
@@ -163,15 +154,9 @@
     <t>DONAS Y CHURROS SIN NOMBRE</t>
   </si>
   <si>
-    <t>FRUTAS Y VERDURAS SIN NOMBRE</t>
-  </si>
-  <si>
     <t>FUENTE DE SODAS GABY</t>
   </si>
   <si>
-    <t>HAMBURGUESAS MC VIVI</t>
-  </si>
-  <si>
     <t>HERBALIFE</t>
   </si>
   <si>
@@ -184,24 +169,18 @@
     <t>RESTAURANT LOS SABORES DE MÉXICO</t>
   </si>
   <si>
-    <t>TACOS SIN NOMBRE</t>
-  </si>
-  <si>
     <t>ESTÉTICA DIJAM</t>
   </si>
   <si>
-    <t>ESTETICA MAR</t>
-  </si>
-  <si>
     <t>ESTETICA STUDIO HOURUS</t>
   </si>
   <si>
-    <t>ESTETICA VIRETH</t>
-  </si>
-  <si>
     <t>HOJALATERIA Y PINTURA PEÑA</t>
   </si>
   <si>
+    <t>PELUQUERIA</t>
+  </si>
+  <si>
     <t>TALLER AUTOMOTRIZ TERAN</t>
   </si>
   <si>
@@ -211,6 +190,9 @@
     <t>Elaboración de tortillas de maíz y molienda de nixtamal</t>
   </si>
   <si>
+    <t>Fabricación de productos de herrería</t>
+  </si>
+  <si>
     <t>Comercio al por menor de carnes rojas</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>Comercio al por menor de artículos para la limpieza</t>
   </si>
   <si>
-    <t>Comercio al por menor de regalos</t>
-  </si>
-  <si>
     <t>Comercio al por menor de ropa, excepto de bebé y lencería</t>
   </si>
   <si>
@@ -244,9 +223,6 @@
     <t>Servicios de acceso a computadoras</t>
   </si>
   <si>
-    <t>Consultorios dentales del sector privado</t>
-  </si>
-  <si>
     <t>Casas de juegos electrónicos</t>
   </si>
   <si>
@@ -259,13 +235,7 @@
     <t>Servicios de preparación de otros alimentos para consumo inmediato</t>
   </si>
   <si>
-    <t>Restaurantes con servicio de preparación de pizzas, hamburguesas, hot dogs y pollos rostizados para llevar</t>
-  </si>
-  <si>
     <t>Restaurantes con servicio de preparación de antojitos</t>
-  </si>
-  <si>
-    <t>Restaurantes con servicio de preparación de tacos y tortas</t>
   </si>
   <si>
     <t>Salones y clínicas de belleza y peluquerías</t>
@@ -632,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,16 +648,16 @@
         <v>311812</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>0.2688236085021035</v>
+        <v>0.2730086589628238</v>
       </c>
       <c r="G2">
-        <v>-99.29877148</v>
+        <v>-99.29683119000001</v>
       </c>
       <c r="H2">
-        <v>19.6171871</v>
+        <v>19.61371691</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,10 +674,10 @@
         <v>311830</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>0.07712418579675567</v>
+        <v>0.08173261652885901</v>
       </c>
       <c r="G3">
         <v>-99.29908256</v>
@@ -730,10 +700,10 @@
         <v>311812</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F4">
-        <v>0.1381876005143056</v>
+        <v>0.1905729918087582</v>
       </c>
       <c r="G4">
         <v>-99.30019034</v>
@@ -753,19 +723,19 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>461121</v>
+        <v>332320</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F5">
-        <v>0.1993312219441378</v>
+        <v>0.2712994125822168</v>
       </c>
       <c r="G5">
-        <v>-99.30153891</v>
+        <v>-99.29732799999999</v>
       </c>
       <c r="H5">
-        <v>19.61450561</v>
+        <v>19.61298183</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -782,16 +752,16 @@
         <v>461121</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F6">
-        <v>0.1371736544869475</v>
+        <v>0.2388888790748118</v>
       </c>
       <c r="G6">
-        <v>-99.29971514</v>
+        <v>-99.30153891</v>
       </c>
       <c r="H6">
-        <v>19.61616298</v>
+        <v>19.61450561</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,16 +778,16 @@
         <v>461121</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>0.2548058054223399</v>
+        <v>0.1795337225791784</v>
       </c>
       <c r="G7">
-        <v>-99.29907851999999</v>
+        <v>-99.29971514</v>
       </c>
       <c r="H7">
-        <v>19.61714757</v>
+        <v>19.61616298</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -831,19 +801,19 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>461190</v>
+        <v>461121</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F8">
-        <v>0.1256313866473118</v>
+        <v>0.2589862742422531</v>
       </c>
       <c r="G8">
-        <v>-99.29909988</v>
+        <v>-99.29721893</v>
       </c>
       <c r="H8">
-        <v>19.61591329</v>
+        <v>19.61329249</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -860,16 +830,16 @@
         <v>461190</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>0.1265539413243882</v>
+        <v>0.1463169082744001</v>
       </c>
       <c r="G9">
-        <v>-99.29909331</v>
+        <v>-99.29909988</v>
       </c>
       <c r="H9">
-        <v>19.61591932</v>
+        <v>19.61591329</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -883,19 +853,19 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>464111</v>
+        <v>461190</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>0.2625503932138992</v>
+        <v>0.1470634227312801</v>
       </c>
       <c r="G10">
-        <v>-99.29720301</v>
+        <v>-99.29909331</v>
       </c>
       <c r="H10">
-        <v>19.61522581</v>
+        <v>19.61591932</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,16 +882,16 @@
         <v>464111</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F11">
-        <v>0.225231176157172</v>
+        <v>0.2449759891242759</v>
       </c>
       <c r="G11">
-        <v>-99.29940458999999</v>
+        <v>-99.29729261</v>
       </c>
       <c r="H11">
-        <v>19.61693723</v>
+        <v>19.61341585</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -938,16 +908,16 @@
         <v>464111</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12">
-        <v>0.2312599897001397</v>
+        <v>0.2262708773723688</v>
       </c>
       <c r="G12">
-        <v>-99.29937006</v>
+        <v>-99.29720301</v>
       </c>
       <c r="H12">
-        <v>19.61698742</v>
+        <v>19.61522581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -961,19 +931,19 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>461160</v>
+        <v>464111</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>0.2137356549740227</v>
+        <v>0.2596390514100592</v>
       </c>
       <c r="G13">
-        <v>-99.29829899000001</v>
+        <v>-99.29940458999999</v>
       </c>
       <c r="H13">
-        <v>19.61352307</v>
+        <v>19.61693723</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -987,19 +957,19 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>461160</v>
+        <v>464111</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F14">
-        <v>0.06580728170367597</v>
+        <v>0.2650297588470035</v>
       </c>
       <c r="G14">
-        <v>-99.29927879</v>
+        <v>-99.29937006</v>
       </c>
       <c r="H14">
-        <v>19.61537716</v>
+        <v>19.61698742</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1013,19 +983,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>461190</v>
+        <v>461160</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15">
-        <v>0.2096929275572698</v>
+        <v>0.1570080663419873</v>
       </c>
       <c r="G15">
-        <v>-99.29949456999999</v>
+        <v>-99.29829899000001</v>
       </c>
       <c r="H15">
-        <v>19.6168064</v>
+        <v>19.61352307</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1039,19 +1009,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>465311</v>
+        <v>461160</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>0.1737440038508509</v>
+        <v>0.08575027285213216</v>
       </c>
       <c r="G16">
-        <v>-99.29879447</v>
+        <v>-99.29927879</v>
       </c>
       <c r="H16">
-        <v>19.61624492</v>
+        <v>19.61537716</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1065,19 +1035,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>465311</v>
+        <v>461190</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>0.2767855014849071</v>
+        <v>0.245876963067867</v>
       </c>
       <c r="G17">
-        <v>-99.29738078</v>
+        <v>-99.29949456999999</v>
       </c>
       <c r="H17">
-        <v>19.61371915</v>
+        <v>19.6168064</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,16 +1064,16 @@
         <v>465311</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18">
-        <v>0.2570774930611648</v>
+        <v>0.1886495581812159</v>
       </c>
       <c r="G18">
-        <v>-99.29921785000001</v>
+        <v>-99.29879447</v>
       </c>
       <c r="H18">
-        <v>19.61719838</v>
+        <v>19.61624492</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1120,16 +1090,16 @@
         <v>465311</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19">
-        <v>0.2770810653242896</v>
+        <v>0.2202286370981558</v>
       </c>
       <c r="G19">
-        <v>-99.29895116</v>
+        <v>-99.29738078</v>
       </c>
       <c r="H19">
-        <v>19.61732231</v>
+        <v>19.61371915</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1146,10 +1116,10 @@
         <v>465311</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>0.06936268204109212</v>
+        <v>0.09707549976280519</v>
       </c>
       <c r="G20">
         <v>-99.29936576</v>
@@ -1172,16 +1142,16 @@
         <v>465311</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>0.227574369733286</v>
+        <v>0.06575836431681459</v>
       </c>
       <c r="G21">
-        <v>-99.30157724</v>
+        <v>-99.2992799</v>
       </c>
       <c r="H21">
-        <v>19.61594341</v>
+        <v>19.61519728</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,16 +1168,16 @@
         <v>465311</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>0.05224695771473784</v>
+        <v>0.1313767471444168</v>
       </c>
       <c r="G22">
-        <v>-99.2992799</v>
+        <v>-99.29991645</v>
       </c>
       <c r="H22">
-        <v>19.61519728</v>
+        <v>19.61561334</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1221,19 +1191,19 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>465311</v>
+        <v>461122</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F23">
-        <v>0.07964971954535888</v>
+        <v>0.1100971402771035</v>
       </c>
       <c r="G23">
-        <v>-99.29991645</v>
+        <v>-99.29946022999999</v>
       </c>
       <c r="H23">
-        <v>19.61561334</v>
+        <v>19.6155783</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1247,19 +1217,19 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>461122</v>
+        <v>467115</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F24">
-        <v>0.07603808137737283</v>
+        <v>0.2188987291551411</v>
       </c>
       <c r="G24">
-        <v>-99.29946022999999</v>
+        <v>-99.29779068000001</v>
       </c>
       <c r="H24">
-        <v>19.6155783</v>
+        <v>19.6132069</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1276,16 +1246,16 @@
         <v>467115</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F25">
-        <v>0.2761576609098264</v>
+        <v>0.1081465817042223</v>
       </c>
       <c r="G25">
-        <v>-99.29779068000001</v>
+        <v>-99.29994888</v>
       </c>
       <c r="H25">
-        <v>19.6132069</v>
+        <v>19.61388114</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1299,19 +1269,19 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>467115</v>
+        <v>461190</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F26">
-        <v>0.1196967200352644</v>
+        <v>0.1925454330533852</v>
       </c>
       <c r="G26">
-        <v>-99.29994888</v>
+        <v>-99.30019430999999</v>
       </c>
       <c r="H26">
-        <v>19.61388114</v>
+        <v>19.61609783</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1325,19 +1295,19 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>465912</v>
+        <v>463211</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F27">
-        <v>0.2780909655208541</v>
+        <v>0.2618113391745323</v>
       </c>
       <c r="G27">
-        <v>-99.30208297</v>
+        <v>-99.29939063</v>
       </c>
       <c r="H27">
-        <v>19.61384655</v>
+        <v>19.61695752</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1351,19 +1321,19 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>461190</v>
+        <v>461130</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28">
-        <v>0.1402389387745563</v>
+        <v>0.2610021533588982</v>
       </c>
       <c r="G28">
-        <v>-99.30019430999999</v>
+        <v>-99.29715362</v>
       </c>
       <c r="H28">
-        <v>19.61609783</v>
+        <v>19.61335313</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1377,19 +1347,19 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>465912</v>
+        <v>461130</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F29">
-        <v>0.261169003869831</v>
+        <v>0.2432847056299489</v>
       </c>
       <c r="G29">
-        <v>-99.29918828</v>
+        <v>-99.30157856</v>
       </c>
       <c r="H29">
-        <v>19.61723032</v>
+        <v>19.61446533</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1403,19 +1373,19 @@
         <v>37</v>
       </c>
       <c r="D30">
-        <v>463211</v>
+        <v>561432</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>0.227664250332339</v>
+        <v>0.2666345999331629</v>
       </c>
       <c r="G30">
-        <v>-99.29939063</v>
+        <v>-99.29935986</v>
       </c>
       <c r="H30">
-        <v>19.61695752</v>
+        <v>19.61700226</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1429,19 +1399,19 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>461130</v>
+        <v>561432</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F31">
-        <v>0.2044535264532528</v>
+        <v>0.1881655302735346</v>
       </c>
       <c r="G31">
-        <v>-99.30157856</v>
+        <v>-99.30082919</v>
       </c>
       <c r="H31">
-        <v>19.61446533</v>
+        <v>19.61543118</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1455,19 +1425,19 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>561432</v>
+        <v>713120</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F32">
-        <v>0.2330488940546435</v>
+        <v>0.2602943108688613</v>
       </c>
       <c r="G32">
-        <v>-99.29935986</v>
+        <v>-99.29940037</v>
       </c>
       <c r="H32">
-        <v>19.61700226</v>
+        <v>19.61694336</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1481,19 +1451,19 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>561432</v>
+        <v>713120</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F33">
-        <v>0.1317288452380206</v>
+        <v>0.2612483306797316</v>
       </c>
       <c r="G33">
-        <v>-99.30082919</v>
+        <v>-99.29939424</v>
       </c>
       <c r="H33">
-        <v>19.61543118</v>
+        <v>19.61695227</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1507,19 +1477,19 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>621211</v>
+        <v>722515</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F34">
-        <v>0.2538235489600779</v>
+        <v>0.1901086807875373</v>
       </c>
       <c r="G34">
-        <v>-99.29908494</v>
+        <v>-99.29881483</v>
       </c>
       <c r="H34">
-        <v>19.61714001</v>
+        <v>19.61626348</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1533,19 +1503,19 @@
         <v>42</v>
       </c>
       <c r="D35">
-        <v>713120</v>
+        <v>722515</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F35">
-        <v>0.2259656783030672</v>
+        <v>0.187731320284293</v>
       </c>
       <c r="G35">
-        <v>-99.29940037</v>
+        <v>-99.29878139</v>
       </c>
       <c r="H35">
-        <v>19.61694336</v>
+        <v>19.616233</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1559,19 +1529,19 @@
         <v>43</v>
       </c>
       <c r="D36">
-        <v>713120</v>
+        <v>722515</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F36">
-        <v>0.2270341745897578</v>
+        <v>0.1543242446514972</v>
       </c>
       <c r="G36">
-        <v>-99.29939424</v>
+        <v>-99.29903052</v>
       </c>
       <c r="H36">
-        <v>19.61695227</v>
+        <v>19.61597701</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1585,19 +1555,19 @@
         <v>44</v>
       </c>
       <c r="D37">
-        <v>722515</v>
+        <v>722518</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F37">
-        <v>0.1743544877580856</v>
+        <v>0.2755034809070764</v>
       </c>
       <c r="G37">
-        <v>-99.29881483</v>
+        <v>-99.29913500000001</v>
       </c>
       <c r="H37">
-        <v>19.61626348</v>
+        <v>19.61708101</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1608,22 +1578,22 @@
         <v>0.28</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>722515</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F38">
-        <v>0.1733778099843274</v>
+        <v>0.1474394565951046</v>
       </c>
       <c r="G38">
-        <v>-99.29878139</v>
+        <v>-99.29909001</v>
       </c>
       <c r="H38">
-        <v>19.616233</v>
+        <v>19.61592235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1634,22 +1604,22 @@
         <v>0.28</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>722515</v>
+        <v>722519</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F39">
-        <v>0.1354035231171541</v>
+        <v>0.2501943255451372</v>
       </c>
       <c r="G39">
-        <v>-99.29903052</v>
+        <v>-99.29946603</v>
       </c>
       <c r="H39">
-        <v>19.61597701</v>
+        <v>19.6168479</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1660,22 +1630,22 @@
         <v>0.28</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>722518</v>
+        <v>722515</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F40">
-        <v>0.2461859339461306</v>
+        <v>0.2782041126698462</v>
       </c>
       <c r="G40">
-        <v>-99.29913500000001</v>
+        <v>-99.29911516999999</v>
       </c>
       <c r="H40">
-        <v>19.61708101</v>
+        <v>19.61710437</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1686,22 +1656,22 @@
         <v>0.28</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>722515</v>
+        <v>722519</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F41">
-        <v>0.1270176580337053</v>
+        <v>0.1150445282862576</v>
       </c>
       <c r="G41">
-        <v>-99.29909001</v>
+        <v>-99.29844303</v>
       </c>
       <c r="H41">
-        <v>19.61592235</v>
+        <v>19.61391537</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1715,19 +1685,19 @@
         <v>48</v>
       </c>
       <c r="D42">
-        <v>722519</v>
+        <v>722515</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F42">
-        <v>0.214591939099375</v>
+        <v>0.1410465685198026</v>
       </c>
       <c r="G42">
-        <v>-99.29946603</v>
+        <v>-99.29966784</v>
       </c>
       <c r="H42">
-        <v>19.6168479</v>
+        <v>19.61581527</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1741,19 +1711,19 @@
         <v>49</v>
       </c>
       <c r="D43">
-        <v>722519</v>
+        <v>722515</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F43">
-        <v>0.2379232623650525</v>
+        <v>0.2775908031426201</v>
       </c>
       <c r="G43">
-        <v>-99.30182995</v>
+        <v>-99.30177765000001</v>
       </c>
       <c r="H43">
-        <v>19.61564678</v>
+        <v>19.61382455</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1767,19 +1737,19 @@
         <v>50</v>
       </c>
       <c r="D44">
-        <v>722515</v>
+        <v>722513</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F44">
-        <v>0.2492043012732141</v>
+        <v>0.1404978639630866</v>
       </c>
       <c r="G44">
-        <v>-99.29911516999999</v>
+        <v>-99.30010262</v>
       </c>
       <c r="H44">
-        <v>19.61710437</v>
+        <v>19.61558981</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1793,19 +1763,19 @@
         <v>51</v>
       </c>
       <c r="D45">
-        <v>722517</v>
+        <v>812110</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F45">
-        <v>0.2312826139003421</v>
+        <v>0.255270005639163</v>
       </c>
       <c r="G45">
-        <v>-99.3017329</v>
+        <v>-99.30075663</v>
       </c>
       <c r="H45">
-        <v>19.61571863</v>
+        <v>19.61641852</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1819,19 +1789,19 @@
         <v>52</v>
       </c>
       <c r="D46">
-        <v>722519</v>
+        <v>812110</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F46">
-        <v>0.1725484001144197</v>
+        <v>0.1895599205373163</v>
       </c>
       <c r="G46">
-        <v>-99.29844303</v>
+        <v>-99.3001883</v>
       </c>
       <c r="H46">
-        <v>19.61391537</v>
+        <v>19.61606997</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1845,19 +1815,19 @@
         <v>53</v>
       </c>
       <c r="D47">
-        <v>722515</v>
+        <v>811121</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F47">
-        <v>0.09851141720231699</v>
+        <v>0.1039027863354596</v>
       </c>
       <c r="G47">
-        <v>-99.29966784</v>
+        <v>-99.29994834999999</v>
       </c>
       <c r="H47">
-        <v>19.61581527</v>
+        <v>19.61393272</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1871,19 +1841,19 @@
         <v>54</v>
       </c>
       <c r="D48">
-        <v>722515</v>
+        <v>812110</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F48">
-        <v>0.2508387709240458</v>
+        <v>0.2508502887053146</v>
       </c>
       <c r="G48">
-        <v>-99.30177765000001</v>
+        <v>-99.29686585</v>
       </c>
       <c r="H48">
-        <v>19.61382455</v>
+        <v>19.61458683</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1897,200 +1867,18 @@
         <v>55</v>
       </c>
       <c r="D49">
-        <v>722513</v>
+        <v>811111</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F49">
-        <v>0.08519973548600913</v>
+        <v>0.1916660678456919</v>
       </c>
       <c r="G49">
-        <v>-99.30010262</v>
+        <v>-99.30019254</v>
       </c>
       <c r="H49">
-        <v>19.61558981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>0.28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50">
-        <v>722514</v>
-      </c>
-      <c r="E50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50">
-        <v>0.2619387407822475</v>
-      </c>
-      <c r="G50">
-        <v>-99.29918273</v>
-      </c>
-      <c r="H50">
-        <v>19.61723631</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>0.28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51">
-        <v>812110</v>
-      </c>
-      <c r="E51" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51">
-        <v>0.1997406768642288</v>
-      </c>
-      <c r="G51">
-        <v>-99.30075663</v>
-      </c>
-      <c r="H51">
-        <v>19.61641852</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>0.28</v>
-      </c>
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52">
-        <v>812110</v>
-      </c>
-      <c r="E52" t="s">
-        <v>84</v>
-      </c>
-      <c r="F52">
-        <v>0.2644133694757086</v>
-      </c>
-      <c r="G52">
-        <v>-99.29853017000001</v>
-      </c>
-      <c r="H52">
-        <v>19.61704175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>0.28</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53">
-        <v>812110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53">
-        <v>0.1371334173894202</v>
-      </c>
-      <c r="G53">
-        <v>-99.3001883</v>
-      </c>
-      <c r="H53">
-        <v>19.61606997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>0.28</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54">
-        <v>812110</v>
-      </c>
-      <c r="E54" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54">
-        <v>0.2345806374879554</v>
-      </c>
-      <c r="G54">
-        <v>-99.30178205999999</v>
-      </c>
-      <c r="H54">
-        <v>19.61568223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>0.28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55">
-        <v>811121</v>
-      </c>
-      <c r="E55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55">
-        <v>0.1141047996153874</v>
-      </c>
-      <c r="G55">
-        <v>-99.29994834999999</v>
-      </c>
-      <c r="H55">
-        <v>19.61393272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>0.28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56">
-        <v>811111</v>
-      </c>
-      <c r="E56" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56">
-        <v>0.139324591445413</v>
-      </c>
-      <c r="G56">
-        <v>-99.30019254</v>
-      </c>
-      <c r="H56">
         <v>19.61608963</v>
       </c>
     </row>

--- a/my_app/data/business_suport_acumulated_into_point_interest.xlsx
+++ b/my_app/data/business_suport_acumulated_into_point_interest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="160">
   <si>
     <t>punto_de_interes</t>
   </si>
@@ -40,148 +40,373 @@
     <t>Latitud</t>
   </si>
   <si>
-    <t>19.614606177859947_-99.29926068547645</t>
-  </si>
-  <si>
-    <t>PANADERIA ESTRELLA</t>
-  </si>
-  <si>
-    <t>TORTILLERIA EL MIRADOR</t>
-  </si>
-  <si>
-    <t>VENTA DE DONAS</t>
-  </si>
-  <si>
-    <t>HERRERIA SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>CARNICERÍA ELVENADO</t>
-  </si>
-  <si>
-    <t>CARNICERIA ILSE</t>
-  </si>
-  <si>
-    <t>CARNICERIA LA UNICA</t>
-  </si>
-  <si>
-    <t>COOPERATIVA ESCOLAR TURNO MATUTINO ESCUELA PRIMARIA MANUEL MARIA CONTRERAS</t>
-  </si>
-  <si>
-    <t>COPERATIVA ESCOLAR TURNO VESPERTINO</t>
-  </si>
-  <si>
-    <t>FARMACIA MAR -SAN</t>
-  </si>
-  <si>
-    <t>FARMACIA MICH</t>
-  </si>
-  <si>
-    <t>FARMACIA PINO</t>
-  </si>
-  <si>
-    <t>FARMACIAS DE MEDICAMENTOS GENÉRICOS</t>
-  </si>
-  <si>
-    <t>LA CASA DEL REGALO</t>
-  </si>
-  <si>
-    <t>MATERIAS PRIMAS JENNIFER</t>
-  </si>
-  <si>
-    <t>PANADERIA LA CHIQUITA</t>
-  </si>
-  <si>
-    <t>PAPELERIA 1 PREPA 148</t>
-  </si>
-  <si>
-    <t>PAPELERIA BOB</t>
-  </si>
-  <si>
-    <t>PAPELERIA ISABELLA</t>
+    <t>19.619376262831004_-99.30938870671669</t>
+  </si>
+  <si>
+    <t>PANADERIA LA PEÑITA</t>
+  </si>
+  <si>
+    <t>PANADERÍA MANANTIALES</t>
+  </si>
+  <si>
+    <t>TORTILLERIA MANANTIALES</t>
+  </si>
+  <si>
+    <t>TORTILLERIA SIN NOMBE</t>
+  </si>
+  <si>
+    <t>HERRERIA</t>
+  </si>
+  <si>
+    <t>HERRERÍA FORJADA</t>
+  </si>
+  <si>
+    <t>HERRERIA Y BALCONERIA LOS MANANTIALES</t>
+  </si>
+  <si>
+    <t>HERRERIA Y FORJA TREJO</t>
+  </si>
+  <si>
+    <t>AUTO ESTEREOS BAS ESTATION</t>
+  </si>
+  <si>
+    <t>AUTO ESTEREOS Y ACCESORIOS PERFEC SOUN</t>
+  </si>
+  <si>
+    <t>BATTERY CLUB 16 DE SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>BAZAR</t>
+  </si>
+  <si>
+    <t>BOUTIQUE GIRLS</t>
+  </si>
+  <si>
+    <t>CARNE SI</t>
+  </si>
+  <si>
+    <t>CARNICERÍA MAYEN</t>
+  </si>
+  <si>
+    <t>CENTRO DE COPIADO</t>
+  </si>
+  <si>
+    <t>CHICHARRON CALIENTE ESTILO RANCHERO</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA DE EQUIPOS MEDICOS</t>
+  </si>
+  <si>
+    <t>EXPENDIO DE PAN SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>FARMACIA DE GENERICOS</t>
+  </si>
+  <si>
+    <t>FARMACIA DE GENERICOS Y CONSULTA MEDICA</t>
+  </si>
+  <si>
+    <t>FARMACIA SAN JUDAS TADEO</t>
+  </si>
+  <si>
+    <t>FERRETERIA VERA</t>
+  </si>
+  <si>
+    <t>FRUTAS Y VERDURAS CHELY</t>
+  </si>
+  <si>
+    <t>HULES AUTOMOTRICES GARVI</t>
+  </si>
+  <si>
+    <t>MAR MICH, AIRE Y SENSORES S.A DE C.V</t>
+  </si>
+  <si>
+    <t>MATERIAL ELECTRICO ELECTROLUMINICA DEL CENTRO</t>
+  </si>
+  <si>
+    <t>MATERIALES EL GAVILAN</t>
+  </si>
+  <si>
+    <t>MATERIAS PRIMAS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>PANADERIA</t>
+  </si>
+  <si>
+    <t>PAPELERIA</t>
+  </si>
+  <si>
+    <t>PAPELERIA NATALY</t>
+  </si>
+  <si>
+    <t>PAPELERIA PRINCESITA</t>
+  </si>
+  <si>
+    <t>PAPELERIA REGALOS MALENA</t>
   </si>
   <si>
     <t>PAPELERÍA SIN NOMBRE</t>
   </si>
   <si>
-    <t>PAPELERIA Y REGALOS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>POLLERÍA BARSAR</t>
-  </si>
-  <si>
-    <t>PRODUCTOS DE LIMPIEZA PROQUIMIC</t>
-  </si>
-  <si>
-    <t>PRODUCTOS DE LIMPIEZA SANFON</t>
-  </si>
-  <si>
-    <t>TIENDA DE DULCES Y BOTANAS</t>
-  </si>
-  <si>
-    <t>UNIFORMES CAPRI</t>
-  </si>
-  <si>
-    <t>VERDULERIA LOS PANCHITOS</t>
-  </si>
-  <si>
-    <t>VERDULERIA Y POLLERIA MELY</t>
-  </si>
-  <si>
-    <t>CAFE INTERNET GAMING PERFORMANCE GEAR</t>
-  </si>
-  <si>
-    <t>CIBER LA WEB@</t>
-  </si>
-  <si>
-    <t>MAQUINITAS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>VIDEO JUEGOS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>CAFETERIA 1 DE LA PREPA 148</t>
-  </si>
-  <si>
-    <t>CAFETERIA 2 PREPA 148</t>
-  </si>
-  <si>
-    <t>CAFETERIA 4</t>
-  </si>
-  <si>
-    <t>COCINA JUQUILITA</t>
-  </si>
-  <si>
-    <t>DONAS Y CHURROS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>FUENTE DE SODAS GABY</t>
-  </si>
-  <si>
-    <t>HERBALIFE</t>
-  </si>
-  <si>
-    <t>JUGOS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>JUGUERIA SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>RESTAURANT LOS SABORES DE MÉXICO</t>
-  </si>
-  <si>
-    <t>ESTÉTICA DIJAM</t>
-  </si>
-  <si>
-    <t>ESTETICA STUDIO HOURUS</t>
-  </si>
-  <si>
-    <t>HOJALATERIA Y PINTURA PEÑA</t>
-  </si>
-  <si>
-    <t>PELUQUERIA</t>
-  </si>
-  <si>
-    <t>TALLER AUTOMOTRIZ TERAN</t>
+    <t>POLLERIA CHUCHO</t>
+  </si>
+  <si>
+    <t>POLLERIA CRIS</t>
+  </si>
+  <si>
+    <t>POLLERIA HUERTA</t>
+  </si>
+  <si>
+    <t>POLLERIA TAYSON</t>
+  </si>
+  <si>
+    <t>RECTIFICACIONES RE-CAR</t>
+  </si>
+  <si>
+    <t>REFACCIONARIA FANNY</t>
+  </si>
+  <si>
+    <t>REFACCIONARIA VOLKS ACUARIO</t>
+  </si>
+  <si>
+    <t>REFRACCIONES Y ACCESORIOS CORTES</t>
+  </si>
+  <si>
+    <t>REGALARTE</t>
+  </si>
+  <si>
+    <t>REGALOS ARCOIRIS</t>
+  </si>
+  <si>
+    <t>ROSTICERIA LOS COMPADRES</t>
+  </si>
+  <si>
+    <t>SOLMER B&amp;R CALENTADORES SOLARES</t>
+  </si>
+  <si>
+    <t>SUKARNE</t>
+  </si>
+  <si>
+    <t>TORNILLOS HIDALGO</t>
+  </si>
+  <si>
+    <t>TORNILLOS SAN PEDRO</t>
+  </si>
+  <si>
+    <t>TSK NICOLAS ROMERO 834</t>
+  </si>
+  <si>
+    <t>JARDIN DE EVENTOS INFATILES MATATENA</t>
+  </si>
+  <si>
+    <t>SALÓN DE EVENTOS  LAS BUGAMBILIAS</t>
+  </si>
+  <si>
+    <t>CIBER CAFE VALERIA</t>
+  </si>
+  <si>
+    <t>INTERNET COMPUMARKET</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DENTAL</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DENTAL JULIO CESAR</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DENTAL SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>ESPECIALIDADES DENTALES</t>
+  </si>
+  <si>
+    <t>MAQUINITAS</t>
+  </si>
+  <si>
+    <t>VIDEOJUEGOS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>BARBACOA MATEOS</t>
+  </si>
+  <si>
+    <t>CAFE ENSALADAS Y VENTA DE ALIMENTOS RAPIDOS BOCU</t>
+  </si>
+  <si>
+    <t>CAFE TORTAS Y GELATINAS</t>
+  </si>
+  <si>
+    <t>CASETA DE ALIMENTOS</t>
+  </si>
+  <si>
+    <t>COCINA ECONÓMICA EL SAZÓN DE DOÑA TERE</t>
+  </si>
+  <si>
+    <t>COCINA ECONOMICA LA HUASTECA</t>
+  </si>
+  <si>
+    <t>COCINA EL SAZON</t>
+  </si>
+  <si>
+    <t>DONAS Y CHURROS</t>
+  </si>
+  <si>
+    <t>DULCES CARMELITA</t>
+  </si>
+  <si>
+    <t>GORDITAS Y QUESADILLAS</t>
+  </si>
+  <si>
+    <t>HAMBURGUESAS AL CARBÓN</t>
+  </si>
+  <si>
+    <t>JUGOS Y LICUADOS</t>
+  </si>
+  <si>
+    <t>LA CASA DEL ANTOJO</t>
+  </si>
+  <si>
+    <t>LA OCCINA DE LA GUERA TETE</t>
+  </si>
+  <si>
+    <t>LA TERRACITA</t>
+  </si>
+  <si>
+    <t>PAOLOS PIZZA</t>
+  </si>
+  <si>
+    <t>PRODUCTOS NUTRICIONALES HERBALIFE</t>
+  </si>
+  <si>
+    <t>PUESTO DE JUGOS</t>
+  </si>
+  <si>
+    <t>ROSTICERIA EL MANANANTIAL</t>
+  </si>
+  <si>
+    <t>TACOS DE CABEZA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>TACOS DE CARNITAS</t>
+  </si>
+  <si>
+    <t>TACOS GALLO</t>
+  </si>
+  <si>
+    <t>TACOS JUQUILITA</t>
+  </si>
+  <si>
+    <t>TAMALES EL MERENDERO</t>
+  </si>
+  <si>
+    <t>TAQUERIA LUCKY</t>
+  </si>
+  <si>
+    <t>TAQUERIA NACHO</t>
+  </si>
+  <si>
+    <t>TORTAS TICOS</t>
+  </si>
+  <si>
+    <t>TORTERIA LA MICHOACANA</t>
+  </si>
+  <si>
+    <t>TORTERIA LA NICOLAITA</t>
+  </si>
+  <si>
+    <t>VENTA DE JUGOS Y POSTRES</t>
+  </si>
+  <si>
+    <t>BARBER SHOP</t>
+  </si>
+  <si>
+    <t>BARBER SHOP JED</t>
+  </si>
+  <si>
+    <t>BARBERIA ELITE</t>
+  </si>
+  <si>
+    <t>CENTRO DEINTEGRACION FAMILIAR EL GRAN YO SOY</t>
+  </si>
+  <si>
+    <t>CHRISTOPHER RO</t>
+  </si>
+  <si>
+    <t>ESTETICA ALBA</t>
+  </si>
+  <si>
+    <t>ESTETICA ETUAL</t>
+  </si>
+  <si>
+    <t>ESTETICA LALIS EVOLUCION</t>
+  </si>
+  <si>
+    <t>ESTETICA MARIAH CAREY</t>
+  </si>
+  <si>
+    <t>ESTETICA NADIA Y KARLA</t>
+  </si>
+  <si>
+    <t>ESTETICA PATY</t>
+  </si>
+  <si>
+    <t>ESTETICA RAGDE</t>
+  </si>
+  <si>
+    <t>ESTETICA SALON GEORGE</t>
+  </si>
+  <si>
+    <t>ESTETICA STILO</t>
+  </si>
+  <si>
+    <t>ESTETICA UNISEX</t>
+  </si>
+  <si>
+    <t>ESTETICA UNISEX LALIS</t>
+  </si>
+  <si>
+    <t>ESTETICA YE&amp;LLU</t>
+  </si>
+  <si>
+    <t>ESTETICA YEYETZY</t>
+  </si>
+  <si>
+    <t>HAIRFAHION SALON</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>IGLESIA</t>
+  </si>
+  <si>
+    <t>NAILS FACTORY</t>
+  </si>
+  <si>
+    <t>REFACCIONARIA GARCIA</t>
+  </si>
+  <si>
+    <t>SALON ESTEFAN</t>
+  </si>
+  <si>
+    <t>TALLER MECANICA EN GENERAL HOJATERIA Y PINTURA</t>
+  </si>
+  <si>
+    <t>TALLER MECANICO RESENDIZ</t>
+  </si>
+  <si>
+    <t>TALLER MECANICO SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>TATUAJES LETS INK MEXICO</t>
+  </si>
+  <si>
+    <t>TERAPIASCORPORALES &amp; SPA</t>
+  </si>
+  <si>
+    <t>UÑAS PESTAÑAS MINK</t>
+  </si>
+  <si>
+    <t>WHIT SEA SPA</t>
   </si>
   <si>
     <t>Panificación tradicional</t>
@@ -193,39 +418,57 @@
     <t>Fabricación de productos de herrería</t>
   </si>
   <si>
+    <t>Comercio al por menor de partes y refacciones nuevas para automóviles, camionetas y camiones</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos usados</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de ropa, excepto de bebé y lencería</t>
+  </si>
+  <si>
     <t>Comercio al por menor de carnes rojas</t>
   </si>
   <si>
+    <t>Comercio al por menor de artículos de papelería</t>
+  </si>
+  <si>
+    <t>Farmacias sin minisúper</t>
+  </si>
+  <si>
     <t>Comercio al por menor de otros alimentos</t>
   </si>
   <si>
-    <t>Farmacias sin minisúper</t>
+    <t>Comercio al por menor en ferreterías y tlapalerías</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de frutas y verduras frescas</t>
   </si>
   <si>
     <t>Comercio al por menor de dulces y materias primas para repostería</t>
   </si>
   <si>
-    <t>Comercio al por menor de artículos de papelería</t>
-  </si>
-  <si>
     <t>Comercio al por menor de carne de aves</t>
   </si>
   <si>
-    <t>Comercio al por menor de artículos para la limpieza</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de ropa, excepto de bebé y lencería</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de frutas y verduras frescas</t>
+    <t>Comercio al por menor de regalos</t>
+  </si>
+  <si>
+    <t>Alquiler sin intermediación de salones para fiestas y convenciones</t>
   </si>
   <si>
     <t>Servicios de acceso a computadoras</t>
   </si>
   <si>
+    <t>Consultorios dentales del sector privado</t>
+  </si>
+  <si>
     <t>Casas de juegos electrónicos</t>
   </si>
   <si>
+    <t>Restaurantes con servicio de preparación de antojitos</t>
+  </si>
+  <si>
     <t>Cafeterías, fuentes de sodas, neverías, refresquerías y similares</t>
   </si>
   <si>
@@ -235,10 +478,16 @@
     <t>Servicios de preparación de otros alimentos para consumo inmediato</t>
   </si>
   <si>
-    <t>Restaurantes con servicio de preparación de antojitos</t>
+    <t>Restaurantes con servicio de preparación de pizzas, hamburguesas, hot dogs y pollos rostizados para llevar</t>
+  </si>
+  <si>
+    <t>Restaurantes con servicio de preparación de tacos y tortas</t>
   </si>
   <si>
     <t>Salones y clínicas de belleza y peluquerías</t>
+  </si>
+  <si>
+    <t>Asociaciones y organizaciones religiosas</t>
   </si>
   <si>
     <t>Hojalatería y pintura de automóviles y camiones</t>
@@ -602,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,16 +897,16 @@
         <v>311812</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="F2">
-        <v>0.2730086589628238</v>
+        <v>0.1814557569232829</v>
       </c>
       <c r="G2">
-        <v>-99.29683119000001</v>
+        <v>-99.31111864</v>
       </c>
       <c r="H2">
-        <v>19.61371691</v>
+        <v>19.6194642</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -671,19 +920,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>311830</v>
+        <v>311812</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="F3">
-        <v>0.08173261652885901</v>
+        <v>0.1754714448815402</v>
       </c>
       <c r="G3">
-        <v>-99.29908256</v>
+        <v>-99.30814795000001</v>
       </c>
       <c r="H3">
-        <v>19.61532181</v>
+        <v>19.61831592</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -697,19 +946,19 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>311812</v>
+        <v>311830</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="F4">
-        <v>0.1905729918087582</v>
+        <v>0.1832332758733285</v>
       </c>
       <c r="G4">
-        <v>-99.30019034</v>
+        <v>-99.30805547999999</v>
       </c>
       <c r="H4">
-        <v>19.61607943</v>
+        <v>19.61830934</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -723,19 +972,19 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>332320</v>
+        <v>311830</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>0.2712994125822168</v>
+        <v>0.2346217621335409</v>
       </c>
       <c r="G5">
-        <v>-99.29732799999999</v>
+        <v>-99.30729538999999</v>
       </c>
       <c r="H5">
-        <v>19.61298183</v>
+        <v>19.61862516</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -749,19 +998,19 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>461121</v>
+        <v>332320</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="F6">
-        <v>0.2388888790748118</v>
+        <v>0.1162323600319817</v>
       </c>
       <c r="G6">
-        <v>-99.30153891</v>
+        <v>-99.31033124</v>
       </c>
       <c r="H6">
-        <v>19.61450561</v>
+        <v>19.6188245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -775,19 +1024,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>461121</v>
+        <v>332320</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="F7">
-        <v>0.1795337225791784</v>
+        <v>0.09098901022078248</v>
       </c>
       <c r="G7">
-        <v>-99.29971514</v>
+        <v>-99.30955720999999</v>
       </c>
       <c r="H7">
-        <v>19.61616298</v>
+        <v>19.61857352</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -801,19 +1050,19 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>461121</v>
+        <v>332320</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="F8">
-        <v>0.2589862742422531</v>
+        <v>0.2292022685121297</v>
       </c>
       <c r="G8">
-        <v>-99.29721893</v>
+        <v>-99.30734476000001</v>
       </c>
       <c r="H8">
-        <v>19.61329249</v>
+        <v>19.61864</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -827,19 +1076,19 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>461190</v>
+        <v>332320</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="F9">
-        <v>0.1463169082744001</v>
+        <v>0.1575840951931301</v>
       </c>
       <c r="G9">
-        <v>-99.29909988</v>
+        <v>-99.30830143999999</v>
       </c>
       <c r="H9">
-        <v>19.61591329</v>
+        <v>19.6183967</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -853,19 +1102,19 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>461190</v>
+        <v>468211</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F10">
-        <v>0.1470634227312801</v>
+        <v>0.2123544660940598</v>
       </c>
       <c r="G10">
-        <v>-99.29909331</v>
+        <v>-99.30749826</v>
       </c>
       <c r="H10">
-        <v>19.61591932</v>
+        <v>19.61868615</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -879,19 +1128,19 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>464111</v>
+        <v>468211</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F11">
-        <v>0.2449759891242759</v>
+        <v>0.06482710028301034</v>
       </c>
       <c r="G11">
-        <v>-99.29729261</v>
+        <v>-99.30889466000001</v>
       </c>
       <c r="H11">
-        <v>19.61341585</v>
+        <v>19.61902508</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -905,19 +1154,19 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>464111</v>
+        <v>468211</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F12">
-        <v>0.2262708773723688</v>
+        <v>0.02809658085336474</v>
       </c>
       <c r="G12">
-        <v>-99.29720301</v>
+        <v>-99.30948033</v>
       </c>
       <c r="H12">
-        <v>19.61522581</v>
+        <v>19.61913878</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -931,19 +1180,19 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>464111</v>
+        <v>466410</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="F13">
-        <v>0.2596390514100592</v>
+        <v>0.187614292165884</v>
       </c>
       <c r="G13">
-        <v>-99.29940458999999</v>
+        <v>-99.30981122</v>
       </c>
       <c r="H13">
-        <v>19.61693723</v>
+        <v>19.62101591</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -957,19 +1206,19 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>464111</v>
+        <v>463211</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F14">
-        <v>0.2650297588470035</v>
+        <v>0.2441022254857977</v>
       </c>
       <c r="G14">
-        <v>-99.29937006</v>
+        <v>-99.30717996</v>
       </c>
       <c r="H14">
-        <v>19.61698742</v>
+        <v>19.61867582</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -983,19 +1232,19 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>461160</v>
+        <v>461121</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="F15">
-        <v>0.1570080663419873</v>
+        <v>0.185972819629931</v>
       </c>
       <c r="G15">
-        <v>-99.29829899000001</v>
+        <v>-99.31116132</v>
       </c>
       <c r="H15">
-        <v>19.61352307</v>
+        <v>19.61947286</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1009,19 +1258,19 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>461160</v>
+        <v>461121</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="F16">
-        <v>0.08575027285213216</v>
+        <v>0.1724284282077737</v>
       </c>
       <c r="G16">
-        <v>-99.29927879</v>
+        <v>-99.31060244</v>
       </c>
       <c r="H16">
-        <v>19.61537716</v>
+        <v>19.61832862</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1035,19 +1284,19 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>461190</v>
+        <v>465311</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F17">
-        <v>0.245876963067867</v>
+        <v>0.263148937149193</v>
       </c>
       <c r="G17">
-        <v>-99.29949456999999</v>
+        <v>-99.30695904</v>
       </c>
       <c r="H17">
-        <v>19.6168064</v>
+        <v>19.61877391</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1061,19 +1310,19 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>465311</v>
+        <v>461121</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="F18">
-        <v>0.1886495581812159</v>
+        <v>0.1813354156724306</v>
       </c>
       <c r="G18">
-        <v>-99.29879447</v>
+        <v>-99.30807787000001</v>
       </c>
       <c r="H18">
-        <v>19.61624492</v>
+        <v>19.61831095</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1087,19 +1336,19 @@
         <v>26</v>
       </c>
       <c r="D19">
-        <v>465311</v>
+        <v>464111</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F19">
-        <v>0.2202286370981558</v>
+        <v>0.09141179075465994</v>
       </c>
       <c r="G19">
-        <v>-99.29738078</v>
+        <v>-99.30946650999999</v>
       </c>
       <c r="H19">
-        <v>19.61371915</v>
+        <v>19.61855745</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1113,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <v>465311</v>
+        <v>461190</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="F20">
-        <v>0.09707549976280519</v>
+        <v>0.2379907302422144</v>
       </c>
       <c r="G20">
-        <v>-99.29936576</v>
+        <v>-99.30725772</v>
       </c>
       <c r="H20">
-        <v>19.61547357</v>
+        <v>19.61863347</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1139,19 +1388,19 @@
         <v>28</v>
       </c>
       <c r="D21">
-        <v>465311</v>
+        <v>464111</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F21">
-        <v>0.06575836431681459</v>
+        <v>0.2618295639058685</v>
       </c>
       <c r="G21">
-        <v>-99.2992799</v>
+        <v>-99.30700272999999</v>
       </c>
       <c r="H21">
-        <v>19.61519728</v>
+        <v>19.61867378</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1165,19 +1414,19 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>465311</v>
+        <v>464111</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="F22">
-        <v>0.1313767471444168</v>
+        <v>0.0734007504724029</v>
       </c>
       <c r="G22">
-        <v>-99.29991645</v>
+        <v>-99.31002822000001</v>
       </c>
       <c r="H22">
-        <v>19.61561334</v>
+        <v>19.61910631</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1191,19 +1440,19 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>461122</v>
+        <v>464111</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F23">
-        <v>0.1100971402771035</v>
+        <v>0.1568853545946386</v>
       </c>
       <c r="G23">
-        <v>-99.29946022999999</v>
+        <v>-99.3104381</v>
       </c>
       <c r="H23">
-        <v>19.6155783</v>
+        <v>19.6183695</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1217,19 +1466,19 @@
         <v>31</v>
       </c>
       <c r="D24">
-        <v>467115</v>
+        <v>467111</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="F24">
-        <v>0.2188987291551411</v>
+        <v>0.2218667249276017</v>
       </c>
       <c r="G24">
-        <v>-99.29779068000001</v>
+        <v>-99.30741159</v>
       </c>
       <c r="H24">
-        <v>19.6132069</v>
+        <v>19.61866009</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1243,19 +1492,19 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>467115</v>
+        <v>461130</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="F25">
-        <v>0.1081465817042223</v>
+        <v>0.2736582102101622</v>
       </c>
       <c r="G25">
-        <v>-99.29994888</v>
+        <v>-99.31098596</v>
       </c>
       <c r="H25">
-        <v>19.61388114</v>
+        <v>19.6213239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1269,19 +1518,19 @@
         <v>33</v>
       </c>
       <c r="D26">
-        <v>461190</v>
+        <v>468211</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F26">
-        <v>0.1925454330533852</v>
+        <v>0.03898100664008509</v>
       </c>
       <c r="G26">
-        <v>-99.30019430999999</v>
+        <v>-99.30969646</v>
       </c>
       <c r="H26">
-        <v>19.61609783</v>
+        <v>19.61917913</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1295,19 +1544,19 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>463211</v>
+        <v>468211</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="F27">
-        <v>0.2618113391745323</v>
+        <v>0.1868199533025179</v>
       </c>
       <c r="G27">
-        <v>-99.29939063</v>
+        <v>-99.31050599</v>
       </c>
       <c r="H27">
-        <v>19.61695752</v>
+        <v>19.62068592</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1321,19 +1570,19 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>461130</v>
+        <v>467111</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="F28">
-        <v>0.2610021533588982</v>
+        <v>0.163650298939836</v>
       </c>
       <c r="G28">
-        <v>-99.29715362</v>
+        <v>-99.30886473</v>
       </c>
       <c r="H28">
-        <v>19.61335313</v>
+        <v>19.62076278</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1347,19 +1596,19 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>461130</v>
+        <v>467111</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="F29">
-        <v>0.2432847056299489</v>
+        <v>0.18605598845184</v>
       </c>
       <c r="G29">
-        <v>-99.30157856</v>
+        <v>-99.30777399999999</v>
       </c>
       <c r="H29">
-        <v>19.61446533</v>
+        <v>19.61867884</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1373,19 +1622,19 @@
         <v>37</v>
       </c>
       <c r="D30">
-        <v>561432</v>
+        <v>461160</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>0.2666345999331629</v>
+        <v>0.1783542991702578</v>
       </c>
       <c r="G30">
-        <v>-99.29935986</v>
+        <v>-99.31108931999999</v>
       </c>
       <c r="H30">
-        <v>19.61700226</v>
+        <v>19.61945825</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1399,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="D31">
-        <v>561432</v>
+        <v>461190</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F31">
-        <v>0.1881655302735346</v>
+        <v>0.2569715163789384</v>
       </c>
       <c r="G31">
-        <v>-99.30082919</v>
+        <v>-99.31007284</v>
       </c>
       <c r="H31">
-        <v>19.61543118</v>
+        <v>19.6215956</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1425,19 +1674,19 @@
         <v>39</v>
       </c>
       <c r="D32">
-        <v>713120</v>
+        <v>465311</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F32">
-        <v>0.2602943108688613</v>
+        <v>0.1511976224777952</v>
       </c>
       <c r="G32">
-        <v>-99.29940037</v>
+        <v>-99.31033665</v>
       </c>
       <c r="H32">
-        <v>19.61694336</v>
+        <v>19.61835077</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1451,19 +1700,19 @@
         <v>40</v>
       </c>
       <c r="D33">
-        <v>713120</v>
+        <v>465311</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>0.2612483306797316</v>
+        <v>0.2093282482221095</v>
       </c>
       <c r="G33">
-        <v>-99.29939424</v>
+        <v>-99.30762699</v>
       </c>
       <c r="H33">
-        <v>19.61695227</v>
+        <v>19.61848734</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1477,19 +1726,19 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>722515</v>
+        <v>465311</v>
       </c>
       <c r="E34" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F34">
-        <v>0.1901086807875373</v>
+        <v>0.19660334831363</v>
       </c>
       <c r="G34">
-        <v>-99.29881483</v>
+        <v>-99.31034495</v>
       </c>
       <c r="H34">
-        <v>19.61626348</v>
+        <v>19.62089773</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1503,19 +1752,19 @@
         <v>42</v>
       </c>
       <c r="D35">
-        <v>722515</v>
+        <v>465311</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F35">
-        <v>0.187731320284293</v>
+        <v>0.1620497307744075</v>
       </c>
       <c r="G35">
-        <v>-99.29878139</v>
+        <v>-99.31093113</v>
       </c>
       <c r="H35">
-        <v>19.616233</v>
+        <v>19.61949035</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1529,19 +1778,19 @@
         <v>43</v>
       </c>
       <c r="D36">
-        <v>722515</v>
+        <v>465311</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="F36">
-        <v>0.1543242446514972</v>
+        <v>0.1650459454833695</v>
       </c>
       <c r="G36">
-        <v>-99.29903052</v>
+        <v>-99.30873696</v>
       </c>
       <c r="H36">
-        <v>19.61597701</v>
+        <v>19.62072765</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1555,19 +1804,19 @@
         <v>44</v>
       </c>
       <c r="D37">
-        <v>722518</v>
+        <v>461122</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="F37">
-        <v>0.2755034809070764</v>
+        <v>0.24157959962361</v>
       </c>
       <c r="G37">
-        <v>-99.29913500000001</v>
+        <v>-99.30721173000001</v>
       </c>
       <c r="H37">
-        <v>19.61708101</v>
+        <v>19.61865852</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1578,22 +1827,22 @@
         <v>0.28</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>722515</v>
+        <v>461122</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="F38">
-        <v>0.1474394565951046</v>
+        <v>0.2273169970242092</v>
       </c>
       <c r="G38">
-        <v>-99.29909001</v>
+        <v>-99.30798984</v>
       </c>
       <c r="H38">
-        <v>19.61592235</v>
+        <v>19.61781326</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1604,22 +1853,22 @@
         <v>0.28</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>722519</v>
+        <v>461122</v>
       </c>
       <c r="E39" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F39">
-        <v>0.2501943255451372</v>
+        <v>0.1776696791123462</v>
       </c>
       <c r="G39">
-        <v>-99.29946603</v>
+        <v>-99.30979938999999</v>
       </c>
       <c r="H39">
-        <v>19.6168479</v>
+        <v>19.62092655</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1630,22 +1879,22 @@
         <v>0.28</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>722515</v>
+        <v>461122</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="F40">
-        <v>0.2782041126698462</v>
+        <v>0.13771925806969</v>
       </c>
       <c r="G40">
-        <v>-99.29911516999999</v>
+        <v>-99.31069328</v>
       </c>
       <c r="H40">
-        <v>19.61710437</v>
+        <v>19.61922153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1656,22 +1905,22 @@
         <v>0.28</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>722519</v>
+        <v>468211</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="F41">
-        <v>0.1150445282862576</v>
+        <v>0.04723840018655512</v>
       </c>
       <c r="G41">
-        <v>-99.29844303</v>
+        <v>-99.30908236</v>
       </c>
       <c r="H41">
-        <v>19.61391537</v>
+        <v>19.61906448</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1682,22 +1931,22 @@
         <v>0.28</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>722515</v>
+        <v>468211</v>
       </c>
       <c r="E42" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F42">
-        <v>0.1410465685198026</v>
+        <v>0.1864969179477104</v>
       </c>
       <c r="G42">
-        <v>-99.29966784</v>
+        <v>-99.31116627</v>
       </c>
       <c r="H42">
-        <v>19.61581527</v>
+        <v>19.61947387</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1708,22 +1957,22 @@
         <v>0.28</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>722515</v>
+        <v>468211</v>
       </c>
       <c r="E43" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F43">
-        <v>0.2775908031426201</v>
+        <v>0.1793207670229721</v>
       </c>
       <c r="G43">
-        <v>-99.30177765000001</v>
+        <v>-99.30983132</v>
       </c>
       <c r="H43">
-        <v>19.61382455</v>
+        <v>19.62093411</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1734,22 +1983,22 @@
         <v>0.28</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>722513</v>
+        <v>468211</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="F44">
-        <v>0.1404978639630866</v>
+        <v>0.1793207670229721</v>
       </c>
       <c r="G44">
-        <v>-99.30010262</v>
+        <v>-99.30983132</v>
       </c>
       <c r="H44">
-        <v>19.61558981</v>
+        <v>19.62093411</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1760,22 +2009,22 @@
         <v>0.28</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>812110</v>
+        <v>465912</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="F45">
-        <v>0.255270005639163</v>
+        <v>0.1743698934958682</v>
       </c>
       <c r="G45">
-        <v>-99.30075663</v>
+        <v>-99.31063548</v>
       </c>
       <c r="H45">
-        <v>19.61641852</v>
+        <v>19.61833709</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1786,22 +2035,22 @@
         <v>0.28</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46">
-        <v>812110</v>
+        <v>465912</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="F46">
-        <v>0.1895599205373163</v>
+        <v>0.1621786582286614</v>
       </c>
       <c r="G46">
-        <v>-99.3001883</v>
+        <v>-99.31083592</v>
       </c>
       <c r="H46">
-        <v>19.61606997</v>
+        <v>19.61989487</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1812,22 +2061,22 @@
         <v>0.28</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>811121</v>
+        <v>461122</v>
       </c>
       <c r="E47" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="F47">
-        <v>0.1039027863354596</v>
+        <v>0.2533723827184364</v>
       </c>
       <c r="G47">
-        <v>-99.29994834999999</v>
+        <v>-99.30710258000001</v>
       </c>
       <c r="H47">
-        <v>19.61393272</v>
+        <v>19.61863128</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1838,22 +2087,22 @@
         <v>0.28</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48">
-        <v>812110</v>
+        <v>467111</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="F48">
-        <v>0.2508502887053146</v>
+        <v>0.2000290850774465</v>
       </c>
       <c r="G48">
-        <v>-99.29686585</v>
+        <v>-99.31129398</v>
       </c>
       <c r="H48">
-        <v>19.61458683</v>
+        <v>19.61949977</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1864,22 +2113,2050 @@
         <v>0.28</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
+        <v>461121</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49">
+        <v>0.2026617587284513</v>
+      </c>
+      <c r="G49">
+        <v>-99.31021403</v>
+      </c>
+      <c r="H49">
+        <v>19.62102473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>468211</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50">
+        <v>0.04723840018655512</v>
+      </c>
+      <c r="G50">
+        <v>-99.30908236</v>
+      </c>
+      <c r="H50">
+        <v>19.61906448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>0.28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>467111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51">
+        <v>0.2065380220752402</v>
+      </c>
+      <c r="G51">
+        <v>-99.3113606</v>
+      </c>
+      <c r="H51">
+        <v>19.61938649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0.28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>461121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="F52">
+        <v>0.1912817289584363</v>
+      </c>
+      <c r="G52">
+        <v>-99.31121145</v>
+      </c>
+      <c r="H52">
+        <v>19.61948303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>0.28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>531113</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
+      </c>
+      <c r="F53">
+        <v>0.1561798364337734</v>
+      </c>
+      <c r="G53">
+        <v>-99.31071366</v>
+      </c>
+      <c r="H53">
+        <v>19.62002063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>531113</v>
+      </c>
+      <c r="E54" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54">
+        <v>0.1285070684935339</v>
+      </c>
+      <c r="G54">
+        <v>-99.30948647</v>
+      </c>
+      <c r="H54">
+        <v>19.62052828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>561432</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55">
+        <v>0.1347868919189754</v>
+      </c>
+      <c r="G55">
+        <v>-99.30992666</v>
+      </c>
+      <c r="H55">
+        <v>19.61827509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0.28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>561432</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56">
+        <v>0.08367939346916783</v>
+      </c>
+      <c r="G56">
+        <v>-99.31014183000001</v>
+      </c>
+      <c r="H56">
+        <v>19.61912511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0.28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>621211</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57">
+        <v>0.1913498083091293</v>
+      </c>
+      <c r="G57">
+        <v>-99.30769079</v>
+      </c>
+      <c r="H57">
+        <v>19.61874111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0.28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>621211</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58">
+        <v>0.2508606772038138</v>
+      </c>
+      <c r="G58">
+        <v>-99.31177829000001</v>
+      </c>
+      <c r="H58">
+        <v>19.61952923</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0.28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>621211</v>
+      </c>
+      <c r="E59" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59">
+        <v>0.09827463143853664</v>
+      </c>
+      <c r="G59">
+        <v>-99.30989984</v>
+      </c>
+      <c r="H59">
+        <v>19.61863511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>0.28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>621211</v>
+      </c>
+      <c r="E60" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60">
+        <v>0.1772681683658321</v>
+      </c>
+      <c r="G60">
+        <v>-99.31046308000001</v>
+      </c>
+      <c r="H60">
+        <v>19.62060808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>0.28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>621211</v>
+      </c>
+      <c r="E61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61">
+        <v>0.2549204165402661</v>
+      </c>
+      <c r="G61">
+        <v>-99.31181617999999</v>
+      </c>
+      <c r="H61">
+        <v>19.61954218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>0.28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>621211</v>
+      </c>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62">
+        <v>0.2509590626148537</v>
+      </c>
+      <c r="G62">
+        <v>-99.3108264</v>
+      </c>
+      <c r="H62">
+        <v>19.62118176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0.28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63">
+        <v>621211</v>
+      </c>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63">
+        <v>0.2455049088575207</v>
+      </c>
+      <c r="G63">
+        <v>-99.3102781</v>
+      </c>
+      <c r="H63">
+        <v>19.62141903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>0.28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64">
+        <v>713120</v>
+      </c>
+      <c r="E64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64">
+        <v>0.0336983732105003</v>
+      </c>
+      <c r="G64">
+        <v>-99.30961906</v>
+      </c>
+      <c r="H64">
+        <v>19.61916469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>0.28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>713120</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65">
+        <v>0.2362079174594163</v>
+      </c>
+      <c r="G65">
+        <v>-99.30728094</v>
+      </c>
+      <c r="H65">
+        <v>19.61862082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>0.28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66">
+        <v>722513</v>
+      </c>
+      <c r="E66" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66">
+        <v>0.02961711256674608</v>
+      </c>
+      <c r="G66">
+        <v>-99.30934379999999</v>
+      </c>
+      <c r="H66">
+        <v>19.61911329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>0.28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>722515</v>
+      </c>
+      <c r="E67" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67">
+        <v>0.2332995668766591</v>
+      </c>
+      <c r="G67">
+        <v>-99.3074518</v>
+      </c>
+      <c r="H67">
+        <v>19.62041234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68">
+        <v>722515</v>
+      </c>
+      <c r="E68" t="s">
+        <v>151</v>
+      </c>
+      <c r="F68">
+        <v>0.1750874995623603</v>
+      </c>
+      <c r="G68">
+        <v>-99.31047852</v>
+      </c>
+      <c r="H68">
+        <v>19.62057024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69">
+        <v>722513</v>
+      </c>
+      <c r="E69" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69">
+        <v>0.07800753605189265</v>
+      </c>
+      <c r="G69">
+        <v>-99.31012294999999</v>
+      </c>
+      <c r="H69">
+        <v>19.61925869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>0.28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70">
+        <v>722518</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70">
+        <v>0.1644935789400041</v>
+      </c>
+      <c r="G70">
+        <v>-99.31072582</v>
+      </c>
+      <c r="H70">
+        <v>19.62015222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0.28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>722518</v>
+      </c>
+      <c r="E71" t="s">
+        <v>152</v>
+      </c>
+      <c r="F71">
+        <v>0.0335442364918432</v>
+      </c>
+      <c r="G71">
+        <v>-99.30926402999999</v>
+      </c>
+      <c r="H71">
+        <v>19.61909839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>0.28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72">
+        <v>722518</v>
+      </c>
+      <c r="E72" t="s">
+        <v>152</v>
+      </c>
+      <c r="F72">
+        <v>0.2215696738814701</v>
+      </c>
+      <c r="G72">
+        <v>-99.30791585999999</v>
+      </c>
+      <c r="H72">
+        <v>19.61794594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0.28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73">
+        <v>722519</v>
+      </c>
+      <c r="E73" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73">
+        <v>0.08895805492129925</v>
+      </c>
+      <c r="G73">
+        <v>-99.31023173</v>
+      </c>
+      <c r="H73">
+        <v>19.61927897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>0.28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74">
+        <v>722519</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+      <c r="F74">
+        <v>0.1260442294431185</v>
+      </c>
+      <c r="G74">
+        <v>-99.30922669</v>
+      </c>
+      <c r="H74">
+        <v>19.61825304</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>0.28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75">
+        <v>722513</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75">
+        <v>0.2535588617939705</v>
+      </c>
+      <c r="G75">
+        <v>-99.3100858</v>
+      </c>
+      <c r="H75">
+        <v>19.62155999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>0.28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76">
+        <v>722517</v>
+      </c>
+      <c r="E76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F76">
+        <v>0.1836504531387722</v>
+      </c>
+      <c r="G76">
+        <v>-99.31113938</v>
+      </c>
+      <c r="H76">
+        <v>19.61946841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>0.28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <v>722515</v>
+      </c>
+      <c r="E77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77">
+        <v>0.08466362990197547</v>
+      </c>
+      <c r="G77">
+        <v>-99.30941084</v>
+      </c>
+      <c r="H77">
+        <v>19.61861515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>0.28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78">
+        <v>722514</v>
+      </c>
+      <c r="E78" t="s">
+        <v>155</v>
+      </c>
+      <c r="F78">
+        <v>0.1968196558153877</v>
+      </c>
+      <c r="G78">
+        <v>-99.30767093999999</v>
+      </c>
+      <c r="H78">
+        <v>19.61865864</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>0.28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79">
+        <v>722518</v>
+      </c>
+      <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79">
+        <v>0.1159749204552712</v>
+      </c>
+      <c r="G79">
+        <v>-99.30892161</v>
+      </c>
+      <c r="H79">
+        <v>19.61843062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>0.28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80">
+        <v>722519</v>
+      </c>
+      <c r="E80" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80">
+        <v>0.217059691659905</v>
+      </c>
+      <c r="G80">
+        <v>-99.31146055000001</v>
+      </c>
+      <c r="H80">
+        <v>19.61942065</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>0.28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81">
+        <v>722517</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81">
+        <v>0.2391933821800024</v>
+      </c>
+      <c r="G81">
+        <v>-99.3076571</v>
+      </c>
+      <c r="H81">
+        <v>19.61797381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>0.28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82">
+        <v>722519</v>
+      </c>
+      <c r="E82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F82">
+        <v>0.2341115744847641</v>
+      </c>
+      <c r="G82">
+        <v>-99.30770458000001</v>
+      </c>
+      <c r="H82">
+        <v>19.61799198</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0.28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83">
+        <v>722515</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F83">
+        <v>0.2049691132641143</v>
+      </c>
+      <c r="G83">
+        <v>-99.30760338</v>
+      </c>
+      <c r="H83">
+        <v>19.6186214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>0.28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84">
+        <v>722517</v>
+      </c>
+      <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84">
+        <v>0.2485114131208202</v>
+      </c>
+      <c r="G84">
+        <v>-99.30712542000001</v>
+      </c>
+      <c r="H84">
+        <v>19.61870553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>0.28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85">
+        <v>722514</v>
+      </c>
+      <c r="E85" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85">
+        <v>0.1996833277408657</v>
+      </c>
+      <c r="G85">
+        <v>-99.31017004</v>
+      </c>
+      <c r="H85">
+        <v>19.62101432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>0.28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86">
+        <v>722514</v>
+      </c>
+      <c r="E86" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86">
+        <v>0.05180787711275812</v>
+      </c>
+      <c r="G86">
+        <v>-99.30916341</v>
+      </c>
+      <c r="H86">
+        <v>19.61896148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>0.28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87">
+        <v>722514</v>
+      </c>
+      <c r="E87" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87">
+        <v>0.2067602718133026</v>
+      </c>
+      <c r="G87">
+        <v>-99.30759401</v>
+      </c>
+      <c r="H87">
+        <v>19.61860186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>0.28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88">
+        <v>722514</v>
+      </c>
+      <c r="E88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88">
+        <v>0.2617388909460812</v>
+      </c>
+      <c r="G88">
+        <v>-99.31187949</v>
+      </c>
+      <c r="H88">
+        <v>19.61956647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>0.28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89">
+        <v>722519</v>
+      </c>
+      <c r="E89" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89">
+        <v>0.1831651011439723</v>
+      </c>
+      <c r="G89">
+        <v>-99.31052884</v>
+      </c>
+      <c r="H89">
+        <v>19.62062529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>0.28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90">
+        <v>722514</v>
+      </c>
+      <c r="E90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90">
+        <v>0.1259442819581585</v>
+      </c>
+      <c r="G90">
+        <v>-99.30835777999999</v>
+      </c>
+      <c r="H90">
+        <v>19.61879326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>0.28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <v>722514</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91">
+        <v>0.2545784526368332</v>
+      </c>
+      <c r="G91">
+        <v>-99.3070555</v>
+      </c>
+      <c r="H91">
+        <v>19.61873471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>0.28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92">
+        <v>722514</v>
+      </c>
+      <c r="E92" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92">
+        <v>0.2114227420441609</v>
+      </c>
+      <c r="G92">
+        <v>-99.31140053999999</v>
+      </c>
+      <c r="H92">
+        <v>19.61953137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>0.28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93">
+        <v>722514</v>
+      </c>
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+      <c r="F93">
+        <v>0.2652292453754478</v>
+      </c>
+      <c r="G93">
+        <v>-99.30693592999999</v>
+      </c>
+      <c r="H93">
+        <v>19.61878329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>0.28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94">
+        <v>722514</v>
+      </c>
+      <c r="E94" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94">
+        <v>0.1967306222314014</v>
+      </c>
+      <c r="G94">
+        <v>-99.31012538</v>
+      </c>
+      <c r="H94">
+        <v>19.62100375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>0.28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95">
+        <v>722515</v>
+      </c>
+      <c r="E95" t="s">
+        <v>151</v>
+      </c>
+      <c r="F95">
+        <v>0.1582040305656588</v>
+      </c>
+      <c r="G95">
+        <v>-99.30929491000001</v>
+      </c>
+      <c r="H95">
+        <v>19.62079628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>0.28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96">
+        <v>812110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96">
+        <v>0.2670906188167895</v>
+      </c>
+      <c r="G96">
+        <v>-99.30691538000001</v>
+      </c>
+      <c r="H96">
+        <v>19.61879151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>0.28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97">
+        <v>812110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>156</v>
+      </c>
+      <c r="F97">
+        <v>0.276790456232985</v>
+      </c>
+      <c r="G97">
+        <v>-99.31201667000001</v>
+      </c>
+      <c r="H97">
+        <v>19.61963843</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0.28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98">
+        <v>812110</v>
+      </c>
+      <c r="E98" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98">
+        <v>0.2035842442736853</v>
+      </c>
+      <c r="G98">
+        <v>-99.31128012000001</v>
+      </c>
+      <c r="H98">
+        <v>19.61895438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>0.28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99">
+        <v>813210</v>
+      </c>
+      <c r="E99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F99">
+        <v>0.1315199694491255</v>
+      </c>
+      <c r="G99">
+        <v>-99.30874693</v>
+      </c>
+      <c r="H99">
+        <v>19.61835963</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>0.28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100">
+        <v>812110</v>
+      </c>
+      <c r="E100" t="s">
+        <v>156</v>
+      </c>
+      <c r="F100">
+        <v>0.140862344107913</v>
+      </c>
+      <c r="G100">
+        <v>-99.30821104</v>
+      </c>
+      <c r="H100">
+        <v>19.6187645</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>0.28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101">
+        <v>812110</v>
+      </c>
+      <c r="E101" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101">
+        <v>0.1555256475311468</v>
+      </c>
+      <c r="G101">
+        <v>-99.31077933</v>
+      </c>
+      <c r="H101">
+        <v>19.61986666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>0.28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102">
+        <v>812110</v>
+      </c>
+      <c r="E102" t="s">
+        <v>156</v>
+      </c>
+      <c r="F102">
+        <v>0.232938194600942</v>
+      </c>
+      <c r="G102">
+        <v>-99.31142582</v>
+      </c>
+      <c r="H102">
+        <v>19.61853575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>0.28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103">
+        <v>812110</v>
+      </c>
+      <c r="E103" t="s">
+        <v>156</v>
+      </c>
+      <c r="F103">
+        <v>0.2576668734426403</v>
+      </c>
+      <c r="G103">
+        <v>-99.31182986</v>
+      </c>
+      <c r="H103">
+        <v>19.61966314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>0.28</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104">
+        <v>812110</v>
+      </c>
+      <c r="E104" t="s">
+        <v>156</v>
+      </c>
+      <c r="F104">
+        <v>0.07099052943446962</v>
+      </c>
+      <c r="G104">
+        <v>-99.31005211999999</v>
+      </c>
+      <c r="H104">
+        <v>19.6192455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>0.28</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105">
+        <v>812110</v>
+      </c>
+      <c r="E105" t="s">
+        <v>156</v>
+      </c>
+      <c r="F105">
+        <v>0.1866244255926101</v>
+      </c>
+      <c r="G105">
+        <v>-99.30901564</v>
+      </c>
+      <c r="H105">
+        <v>19.61773511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>0.28</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106">
+        <v>812110</v>
+      </c>
+      <c r="E106" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106">
+        <v>0.1770028170511273</v>
+      </c>
+      <c r="G106">
+        <v>-99.30978619</v>
+      </c>
+      <c r="H106">
+        <v>19.62092343</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>0.28</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107">
+        <v>812110</v>
+      </c>
+      <c r="E107" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107">
+        <v>0.1957337482497641</v>
+      </c>
+      <c r="G107">
+        <v>-99.30765015</v>
+      </c>
+      <c r="H107">
+        <v>19.6187307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108">
+        <v>0.28</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108">
+        <v>812110</v>
+      </c>
+      <c r="E108" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108">
+        <v>0.2296662466698105</v>
+      </c>
+      <c r="G108">
+        <v>-99.31057432999999</v>
+      </c>
+      <c r="H108">
+        <v>19.62111374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>0.28</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109">
+        <v>812110</v>
+      </c>
+      <c r="E109" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109">
+        <v>0.2625865508766575</v>
+      </c>
+      <c r="G109">
+        <v>-99.30747925</v>
+      </c>
+      <c r="H109">
+        <v>19.61784601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>0.28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110">
+        <v>812110</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110">
+        <v>0.1177093050751342</v>
+      </c>
+      <c r="G110">
+        <v>-99.30917961999999</v>
+      </c>
+      <c r="H110">
+        <v>19.61833616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>0.28</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111">
+        <v>812110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111">
+        <v>0.08895805492129925</v>
+      </c>
+      <c r="G111">
+        <v>-99.31023173</v>
+      </c>
+      <c r="H111">
+        <v>19.61927897</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>0.28</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112">
+        <v>812110</v>
+      </c>
+      <c r="E112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112">
+        <v>0.0980040671137332</v>
+      </c>
+      <c r="G112">
+        <v>-99.30906782</v>
+      </c>
+      <c r="H112">
+        <v>19.61854834</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>0.28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113">
+        <v>812110</v>
+      </c>
+      <c r="E113" t="s">
+        <v>156</v>
+      </c>
+      <c r="F113">
+        <v>0.2197615548490537</v>
+      </c>
+      <c r="G113">
+        <v>-99.30783226</v>
+      </c>
+      <c r="H113">
+        <v>19.6180509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>0.28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114">
+        <v>812110</v>
+      </c>
+      <c r="E114" t="s">
+        <v>156</v>
+      </c>
+      <c r="F114">
+        <v>0.201164078491947</v>
+      </c>
+      <c r="G114">
+        <v>-99.31130931</v>
+      </c>
+      <c r="H114">
+        <v>19.61936986</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115">
+        <v>0.28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115">
+        <v>811121</v>
+      </c>
+      <c r="E115" t="s">
+        <v>158</v>
+      </c>
+      <c r="F115">
+        <v>0.09725186451122979</v>
+      </c>
+      <c r="G115">
+        <v>-99.30922707000001</v>
+      </c>
+      <c r="H115">
+        <v>19.61851501</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116">
+        <v>0.28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>811121</v>
+      </c>
+      <c r="E116" t="s">
+        <v>158</v>
+      </c>
+      <c r="F116">
+        <v>0.1565056254061509</v>
+      </c>
+      <c r="G116">
+        <v>-99.31083609</v>
+      </c>
+      <c r="H116">
+        <v>19.61972597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>0.28</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <v>813210</v>
+      </c>
+      <c r="E117" t="s">
+        <v>157</v>
+      </c>
+      <c r="F117">
+        <v>0.2589233981801554</v>
+      </c>
+      <c r="G117">
+        <v>-99.31174932</v>
+      </c>
+      <c r="H117">
+        <v>19.61868496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>0.28</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>812110</v>
+      </c>
+      <c r="E118" t="s">
+        <v>156</v>
+      </c>
+      <c r="F118">
+        <v>0.2263667510161171</v>
+      </c>
+      <c r="G118">
+        <v>-99.3115485</v>
+      </c>
+      <c r="H118">
+        <v>19.6194507</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>0.28</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119">
         <v>811111</v>
       </c>
-      <c r="E49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49">
-        <v>0.1916660678456919</v>
-      </c>
-      <c r="G49">
-        <v>-99.30019254</v>
-      </c>
-      <c r="H49">
-        <v>19.61608963</v>
+      <c r="E119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F119">
+        <v>0.2690963002565252</v>
+      </c>
+      <c r="G119">
+        <v>-99.31103136</v>
+      </c>
+      <c r="H119">
+        <v>19.62123705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>0.28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120">
+        <v>812110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>156</v>
+      </c>
+      <c r="F120">
+        <v>0.278572926419363</v>
+      </c>
+      <c r="G120">
+        <v>-99.31203282</v>
+      </c>
+      <c r="H120">
+        <v>19.61964691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>0.28</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>811111</v>
+      </c>
+      <c r="E121" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121">
+        <v>0.2520785646519288</v>
+      </c>
+      <c r="G121">
+        <v>-99.30723122000001</v>
+      </c>
+      <c r="H121">
+        <v>19.62038092</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>0.28</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122">
+        <v>811111</v>
+      </c>
+      <c r="E122" t="s">
+        <v>159</v>
+      </c>
+      <c r="F122">
+        <v>0.2677898955064057</v>
+      </c>
+      <c r="G122">
+        <v>-99.31194240000001</v>
+      </c>
+      <c r="H122">
+        <v>19.61925902</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>0.28</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123">
+        <v>811111</v>
+      </c>
+      <c r="E123" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123">
+        <v>0.1874307917062006</v>
+      </c>
+      <c r="G123">
+        <v>-99.31117509000001</v>
+      </c>
+      <c r="H123">
+        <v>19.61947566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>0.28</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124">
+        <v>812110</v>
+      </c>
+      <c r="E124" t="s">
+        <v>156</v>
+      </c>
+      <c r="F124">
+        <v>0.2710077112670211</v>
+      </c>
+      <c r="G124">
+        <v>-99.31196414</v>
+      </c>
+      <c r="H124">
+        <v>19.61961088</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>0.28</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125">
+        <v>812110</v>
+      </c>
+      <c r="E125" t="s">
+        <v>156</v>
+      </c>
+      <c r="F125">
+        <v>0.2090665713145461</v>
+      </c>
+      <c r="G125">
+        <v>-99.31038569</v>
+      </c>
+      <c r="H125">
+        <v>19.62100512</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>0.28</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126">
+        <v>812110</v>
+      </c>
+      <c r="E126" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126">
+        <v>0.1498127077456305</v>
+      </c>
+      <c r="G126">
+        <v>-99.31081278000001</v>
+      </c>
+      <c r="H126">
+        <v>19.61925031</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>0.28</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127">
+        <v>812110</v>
+      </c>
+      <c r="E127" t="s">
+        <v>156</v>
+      </c>
+      <c r="F127">
+        <v>0.09240670230515406</v>
+      </c>
+      <c r="G127">
+        <v>-99.30970082</v>
+      </c>
+      <c r="H127">
+        <v>19.61859897</v>
       </c>
     </row>
   </sheetData>

--- a/my_app/data/business_suport_acumulated_into_point_interest.xlsx
+++ b/my_app/data/business_suport_acumulated_into_point_interest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>punto_de_interes</t>
   </si>
@@ -40,145 +40,154 @@
     <t>Latitud</t>
   </si>
   <si>
-    <t>19.614525327742324_-99.31861550572792</t>
-  </si>
-  <si>
-    <t>PANADERÍA</t>
-  </si>
-  <si>
-    <t>PANADERIA SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>TORTILLERIA LUPITA</t>
-  </si>
-  <si>
-    <t>TORTILLERIA MATEOS</t>
-  </si>
-  <si>
-    <t>ALUMINIO SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>HERRERIA MARSAN</t>
-  </si>
-  <si>
-    <t>ACCESORIOS PARA AUTOMOVIL</t>
-  </si>
-  <si>
-    <t>CARAMELITOS GRANEL</t>
-  </si>
-  <si>
-    <t>CARNICERÍA YUYU</t>
-  </si>
-  <si>
-    <t>COOPERATIVA ESCUELA SECUNDARIA FEDERAL VICENTE GUERRERO</t>
-  </si>
-  <si>
-    <t>DULCERIA LUPITA</t>
-  </si>
-  <si>
-    <t>FARMACIA EL ANGEL</t>
-  </si>
-  <si>
-    <t>JUGOS Y FRUTAS KARINA</t>
-  </si>
-  <si>
-    <t>PAPELERÍA CARMEN</t>
-  </si>
-  <si>
-    <t>PAPELERÍA FANY</t>
-  </si>
-  <si>
-    <t>PAPELERIA LUPITA</t>
-  </si>
-  <si>
-    <t>PAPELERIA SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>PAPELERIA Y REGALOS ANITA</t>
-  </si>
-  <si>
-    <t>PAPELERÍA Y REGALOS FER</t>
-  </si>
-  <si>
-    <t>PAPELERÍA Y REGALOS KRISTHAL</t>
-  </si>
-  <si>
-    <t>PAPELERIA Y REGLOS ANITA</t>
-  </si>
-  <si>
-    <t>POLLERIA TRES REYES</t>
-  </si>
-  <si>
-    <t>QUIMDEL</t>
-  </si>
-  <si>
-    <t>TLALPALERÍA</t>
-  </si>
-  <si>
-    <t>VENTA DE AUTOPOLARIZADOS Y CUBREASIENTOS SIN NOMBRE</t>
-  </si>
-  <si>
-    <t>VENTA DE ROPA USADA</t>
-  </si>
-  <si>
-    <t>SALON DE EVENTOS RIP S</t>
-  </si>
-  <si>
-    <t>CYBER KARINA</t>
-  </si>
-  <si>
-    <t>INTERNET JET</t>
-  </si>
-  <si>
-    <t>CALDOS DE GALLINA DON JUAN</t>
-  </si>
-  <si>
-    <t>COCINA ECONOMICA</t>
-  </si>
-  <si>
-    <t>COCINA ECONOMICA SABIS Y ALIS</t>
-  </si>
-  <si>
-    <t>COCINA SOFI</t>
-  </si>
-  <si>
-    <t>CREPAS</t>
-  </si>
-  <si>
-    <t>DISTRIBUIDOR HERBALIFE</t>
-  </si>
-  <si>
-    <t>EL ASADERO AL CARBON</t>
-  </si>
-  <si>
-    <t>ROSTICERIA KEVIN</t>
-  </si>
-  <si>
-    <t>TACOS EL PAISA</t>
-  </si>
-  <si>
-    <t>TAQUERIA</t>
-  </si>
-  <si>
-    <t>VENTA DE HAMBURGUESAS</t>
-  </si>
-  <si>
-    <t>CASA SAN JOSÉ</t>
-  </si>
-  <si>
-    <t>ESTETICA JONY</t>
-  </si>
-  <si>
-    <t>ESTETICA LUZ</t>
-  </si>
-  <si>
-    <t>ESTICA BERAKCA</t>
-  </si>
-  <si>
-    <t>TALLER MECANICO</t>
-  </si>
-  <si>
-    <t>TATUAJES TATU MODIMOD</t>
+    <t>19.61138180045828_-99.30447578430176</t>
+  </si>
+  <si>
+    <t>CHURRERIA CHURROS Y DONAS</t>
+  </si>
+  <si>
+    <t>PANADERIA SCORPIONS</t>
+  </si>
+  <si>
+    <t>TORTILLERIA LA RESISTENCIA</t>
+  </si>
+  <si>
+    <t>TORTILLERIA SABOR A MEXICO</t>
+  </si>
+  <si>
+    <t>TALLER DE HERRERIA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>CARNICERIA ALEX</t>
+  </si>
+  <si>
+    <t>CARNICERIA LA PANCHITA</t>
+  </si>
+  <si>
+    <t>CARNICERÍA LA REYNA</t>
+  </si>
+  <si>
+    <t>DULCES REFRESCOS Y BOTANAS EL ANTOJO</t>
+  </si>
+  <si>
+    <t>FARMACIA DEL DOCTOR IQ</t>
+  </si>
+  <si>
+    <t>JARCIERIA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>PAPELERIA ARI</t>
+  </si>
+  <si>
+    <t>PAPELERÍA IVAN</t>
+  </si>
+  <si>
+    <t>PAPELERIA JESSICA</t>
+  </si>
+  <si>
+    <t>PAPELERIA LEO</t>
+  </si>
+  <si>
+    <t>PAPELERIA LUNA</t>
+  </si>
+  <si>
+    <t>PAPELERIA MARANATHA</t>
+  </si>
+  <si>
+    <t>PAPELERÍA MIS PEQUES</t>
+  </si>
+  <si>
+    <t>PAPELERÍA PALGRI</t>
+  </si>
+  <si>
+    <t>PAPELERIA Y MERCERIA LULU</t>
+  </si>
+  <si>
+    <t>PAPELERIA, INTERNET IMO</t>
+  </si>
+  <si>
+    <t>POLLERIA PAME</t>
+  </si>
+  <si>
+    <t>PUESTO DE POLLO CRISTINA</t>
+  </si>
+  <si>
+    <t>REGALOS ANGEL</t>
+  </si>
+  <si>
+    <t>TLAPALERIA LA PEQUEÑA</t>
+  </si>
+  <si>
+    <t>TLAPALERIA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>VENTA DE ROPA</t>
+  </si>
+  <si>
+    <t>VIDEOJUEGOS Y DULCES BARBY</t>
+  </si>
+  <si>
+    <t>JARDIN DE EVENTOS ALEX</t>
+  </si>
+  <si>
+    <t>SALON DE ACTOS DE BARRON</t>
+  </si>
+  <si>
+    <t>INTERNET INFINITUM</t>
+  </si>
+  <si>
+    <t>CLINICA DENTAL</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DENTAL</t>
+  </si>
+  <si>
+    <t>DISPENSARIO DENTAL</t>
+  </si>
+  <si>
+    <t>ANTOJITOS MEXICANOS</t>
+  </si>
+  <si>
+    <t>ANTOJITOS MEXICANOS LOLIS</t>
+  </si>
+  <si>
+    <t>ANTOJITOS MEXICANOS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>CLUB HERBALIFE</t>
+  </si>
+  <si>
+    <t>COCINA ECONOMICA RECHEL</t>
+  </si>
+  <si>
+    <t>JUGOS Y LICUADOS ANALIZ</t>
+  </si>
+  <si>
+    <t>LOS CHILANGUITOS DE BARRON</t>
+  </si>
+  <si>
+    <t>TACOS Y ANTOJITOS JAVIS</t>
+  </si>
+  <si>
+    <t>TORTAS EL JAPO</t>
+  </si>
+  <si>
+    <t>TORTERIA LA QUE TORTA</t>
+  </si>
+  <si>
+    <t>ESTETICA GABY</t>
+  </si>
+  <si>
+    <t>ESTETICA MATHIEU</t>
+  </si>
+  <si>
+    <t>ESTETICA MILENIUM</t>
+  </si>
+  <si>
+    <t>ESTETICA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>IGLESIA INMACULADA CONCEPCION</t>
   </si>
   <si>
     <t>Panificación tradicional</t>
@@ -190,70 +199,64 @@
     <t>Fabricación de productos de herrería</t>
   </si>
   <si>
-    <t>Comercio al por menor de partes y refacciones nuevas para automóviles, camionetas y camiones</t>
+    <t>Comercio al por menor de carnes rojas</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de otros alimentos</t>
+  </si>
+  <si>
+    <t>Farmacias sin minisúper</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos para la limpieza</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos de papelería</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de carne de aves</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de regalos</t>
+  </si>
+  <si>
+    <t>Comercio al por menor en ferreterías y tlapalerías</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de ropa, excepto de bebé y lencería</t>
   </si>
   <si>
     <t>Comercio al por menor de dulces y materias primas para repostería</t>
   </si>
   <si>
-    <t>Comercio al por menor de carnes rojas</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de otros alimentos</t>
-  </si>
-  <si>
-    <t>Farmacias sin minisúper</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de frutas y verduras frescas</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de artículos de papelería</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de carne de aves</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de artículos para la limpieza</t>
-  </si>
-  <si>
-    <t>Comercio al por menor en ferreterías y tlapalerías</t>
-  </si>
-  <si>
-    <t>Comercio al por menor de artículos usados</t>
-  </si>
-  <si>
     <t>Alquiler sin intermediación de salones para fiestas y convenciones</t>
   </si>
   <si>
     <t>Servicios de acceso a computadoras</t>
   </si>
   <si>
+    <t>Consultorios dentales del sector privado</t>
+  </si>
+  <si>
     <t>Restaurantes con servicio de preparación de antojitos</t>
   </si>
   <si>
+    <t>Servicios de preparación de otros alimentos para consumo inmediato</t>
+  </si>
+  <si>
     <t>Restaurantes que preparan otro tipo de alimentos para llevar</t>
   </si>
   <si>
     <t>Cafeterías, fuentes de sodas, neverías, refresquerías y similares</t>
   </si>
   <si>
-    <t>Servicios de preparación de otros alimentos para consumo inmediato</t>
-  </si>
-  <si>
-    <t>Restaurantes con servicio de preparación de pizzas, hamburguesas, hot dogs y pollos rostizados para llevar</t>
-  </si>
-  <si>
     <t>Restaurantes con servicio de preparación de tacos y tortas</t>
   </si>
   <si>
+    <t>Salones y clínicas de belleza y peluquerías</t>
+  </si>
+  <si>
     <t>Asociaciones y organizaciones religiosas</t>
-  </si>
-  <si>
-    <t>Salones y clínicas de belleza y peluquerías</t>
-  </si>
-  <si>
-    <t>Reparación mecánica en general de automóviles y camiones</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,16 +660,16 @@
         <v>311812</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F2">
-        <v>0.2762460765353862</v>
+        <v>0.2681891165795325</v>
       </c>
       <c r="G2">
-        <v>-99.3168311</v>
+        <v>-99.30194084</v>
       </c>
       <c r="H2">
-        <v>19.61269595</v>
+        <v>19.61172114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -683,16 +686,16 @@
         <v>311812</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>0.07825508448954953</v>
+        <v>0.1468710844106749</v>
       </c>
       <c r="G3">
-        <v>-99.31826368</v>
+        <v>-99.30342441000001</v>
       </c>
       <c r="H3">
-        <v>19.61390448</v>
+        <v>19.61225574</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -709,16 +712,16 @@
         <v>311830</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4">
-        <v>0.2071170032315148</v>
+        <v>0.1998956455615632</v>
       </c>
       <c r="G4">
-        <v>-99.31799322000001</v>
+        <v>-99.30531332</v>
       </c>
       <c r="H4">
-        <v>19.61275732</v>
+        <v>19.60976647</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -735,16 +738,16 @@
         <v>311830</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5">
-        <v>0.08884117634033978</v>
+        <v>0.1422636576593148</v>
       </c>
       <c r="G5">
-        <v>-99.31940057</v>
+        <v>-99.3033322</v>
       </c>
       <c r="H5">
-        <v>19.61482778</v>
+        <v>19.61207204</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -761,16 +764,16 @@
         <v>332320</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>0.1224908659894669</v>
+        <v>0.2741293940097897</v>
       </c>
       <c r="G6">
-        <v>-99.31842279999999</v>
+        <v>-99.30694975</v>
       </c>
       <c r="H6">
-        <v>19.6134388</v>
+        <v>19.61057763</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -784,19 +787,19 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>332320</v>
+        <v>461121</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>0.1513567544091585</v>
+        <v>0.1117790970898082</v>
       </c>
       <c r="G7">
-        <v>-99.31851215</v>
+        <v>-99.30369148</v>
       </c>
       <c r="H7">
-        <v>19.61316763</v>
+        <v>19.61206349</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -810,19 +813,19 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>468211</v>
+        <v>461121</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8">
-        <v>0.1349629480198368</v>
+        <v>0.1998356952957569</v>
       </c>
       <c r="G8">
-        <v>-99.31846342999999</v>
+        <v>-99.30265532</v>
       </c>
       <c r="H8">
-        <v>19.61332006</v>
+        <v>19.61191945</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -836,19 +839,19 @@
         <v>16</v>
       </c>
       <c r="D9">
-        <v>461160</v>
+        <v>461121</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F9">
-        <v>0.203370637820198</v>
+        <v>0.2052006068108701</v>
       </c>
       <c r="G9">
-        <v>-99.31677989000001</v>
+        <v>-99.30260330999999</v>
       </c>
       <c r="H9">
-        <v>19.61392927</v>
+        <v>19.61192437</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -862,19 +865,19 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>461121</v>
+        <v>461190</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10">
-        <v>0.1948220125676608</v>
+        <v>0.09383490267805693</v>
       </c>
       <c r="G10">
-        <v>-99.31853338000001</v>
+        <v>-99.30378186</v>
       </c>
       <c r="H10">
-        <v>19.61277496</v>
+        <v>19.61191551</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -888,19 +891,19 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>461190</v>
+        <v>464111</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>0.1503019993147754</v>
+        <v>0.210293112058274</v>
       </c>
       <c r="G11">
-        <v>-99.31756054</v>
+        <v>-99.30255399000001</v>
       </c>
       <c r="H11">
-        <v>19.61360906</v>
+        <v>19.61192903</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -914,19 +917,19 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>461160</v>
+        <v>467115</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>0.2504233732202878</v>
+        <v>0.08754214247442332</v>
       </c>
       <c r="G12">
-        <v>-99.31725977000001</v>
+        <v>-99.30525382</v>
       </c>
       <c r="H12">
-        <v>19.61267031</v>
+        <v>19.61166933</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -940,19 +943,19 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>464111</v>
+        <v>465311</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F13">
-        <v>0.243151494987131</v>
+        <v>0.2290059326439431</v>
       </c>
       <c r="G13">
-        <v>-99.31739347</v>
+        <v>-99.3030911</v>
       </c>
       <c r="H13">
-        <v>19.61266613</v>
+        <v>19.60978801</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -966,19 +969,19 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>461130</v>
+        <v>465311</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F14">
-        <v>0.2609064143333541</v>
+        <v>0.1023235493640228</v>
       </c>
       <c r="G14">
-        <v>-99.31708265</v>
+        <v>-99.30540289</v>
       </c>
       <c r="H14">
-        <v>19.61267583</v>
+        <v>19.61167181</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -995,16 +998,16 @@
         <v>465311</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F15">
-        <v>0.271942525402841</v>
+        <v>0.1817642494269382</v>
       </c>
       <c r="G15">
-        <v>-99.31690303000001</v>
+        <v>-99.30322698000001</v>
       </c>
       <c r="H15">
-        <v>19.61268712</v>
+        <v>19.61251681</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1021,16 +1024,16 @@
         <v>465311</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16">
-        <v>0.2196225982506605</v>
+        <v>0.08206865860544582</v>
       </c>
       <c r="G16">
-        <v>-99.31785499999999</v>
+        <v>-99.30396424</v>
       </c>
       <c r="H16">
-        <v>19.61268471</v>
+        <v>19.61194085</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1047,16 +1050,16 @@
         <v>465311</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17">
-        <v>0.1482394479378869</v>
+        <v>0.1693804932208264</v>
       </c>
       <c r="G17">
-        <v>-99.31752736</v>
+        <v>-99.30395669000001</v>
       </c>
       <c r="H17">
-        <v>19.61367289</v>
+        <v>19.61282446</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1073,16 +1076,16 @@
         <v>465311</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18">
-        <v>0.2509873839531034</v>
+        <v>0.1971297016267322</v>
       </c>
       <c r="G18">
-        <v>-99.32017804</v>
+        <v>-99.3032264</v>
       </c>
       <c r="H18">
-        <v>19.61281405</v>
+        <v>19.61270763</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1093,22 +1096,22 @@
         <v>0.28</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>465311</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F19">
-        <v>0.2030868694521827</v>
+        <v>0.1105596239813145</v>
       </c>
       <c r="G19">
-        <v>-99.31809411</v>
+        <v>-99.3036204</v>
       </c>
       <c r="H19">
-        <v>19.6127662</v>
+        <v>19.61196434</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1119,22 +1122,22 @@
         <v>0.28</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>465311</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20">
-        <v>0.2310063599126083</v>
+        <v>0.1589611295509925</v>
       </c>
       <c r="G20">
-        <v>-99.31991769</v>
+        <v>-99.30306505</v>
       </c>
       <c r="H20">
-        <v>19.61284862</v>
+        <v>19.61085483</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1145,22 +1148,22 @@
         <v>0.28</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>465311</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>0.2797217174349503</v>
+        <v>0.2606933577455803</v>
       </c>
       <c r="G21">
-        <v>-99.31676634999999</v>
+        <v>-99.30250952</v>
       </c>
       <c r="H21">
-        <v>19.61271035</v>
+        <v>19.60994449</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1171,22 +1174,22 @@
         <v>0.28</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>465311</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>0.1062225888420619</v>
+        <v>0.1484577048857927</v>
       </c>
       <c r="G22">
-        <v>-99.31823855</v>
+        <v>-99.30307134</v>
       </c>
       <c r="H22">
-        <v>19.61363849</v>
+        <v>19.61120218</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1197,22 +1200,22 @@
         <v>0.28</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>465311</v>
+        <v>461122</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23">
-        <v>0.2194838598920446</v>
+        <v>0.2016886614430732</v>
       </c>
       <c r="G23">
-        <v>-99.31969254000001</v>
+        <v>-99.30263735</v>
       </c>
       <c r="H23">
-        <v>19.61283215</v>
+        <v>19.61192115</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1223,22 +1226,22 @@
         <v>0.28</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>461122</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24">
-        <v>0.06965186252345548</v>
+        <v>0.1501360565080778</v>
       </c>
       <c r="G24">
-        <v>-99.31800094</v>
+        <v>-99.30335313</v>
       </c>
       <c r="H24">
-        <v>19.61428608</v>
+        <v>19.61222126</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1249,22 +1252,22 @@
         <v>0.28</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>467115</v>
+        <v>465912</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25">
-        <v>0.145168447547941</v>
+        <v>0.1037369895258615</v>
       </c>
       <c r="G25">
-        <v>-99.31837364</v>
+        <v>-99.30373622</v>
       </c>
       <c r="H25">
-        <v>19.61323983</v>
+        <v>19.6120023</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1275,22 +1278,22 @@
         <v>0.28</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>467111</v>
       </c>
       <c r="E26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>0.1935627670176389</v>
+        <v>0.2346184476144548</v>
       </c>
       <c r="G26">
-        <v>-99.31858332</v>
+        <v>-99.30278242999999</v>
       </c>
       <c r="H26">
-        <v>19.61278484</v>
+        <v>19.61000066</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1301,22 +1304,22 @@
         <v>0.28</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>468211</v>
+        <v>467111</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F27">
-        <v>0.1907946997555916</v>
+        <v>0.1115178776972825</v>
       </c>
       <c r="G27">
-        <v>-99.31903549</v>
+        <v>-99.30353212</v>
       </c>
       <c r="H27">
-        <v>19.6128557</v>
+        <v>19.61091744</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1327,22 +1330,22 @@
         <v>0.28</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>466410</v>
+        <v>463211</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28">
-        <v>0.07042800069066835</v>
+        <v>0.05907491713824689</v>
       </c>
       <c r="G28">
-        <v>-99.31822858</v>
+        <v>-99.30417626000001</v>
       </c>
       <c r="H28">
-        <v>19.61400733</v>
+        <v>19.61183196</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1353,22 +1356,22 @@
         <v>0.28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>531113</v>
+        <v>461160</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29">
-        <v>0.0929620933698803</v>
+        <v>0.2140363930525354</v>
       </c>
       <c r="G29">
-        <v>-99.31780084</v>
+        <v>-99.3032623</v>
       </c>
       <c r="H29">
-        <v>19.61485707</v>
+        <v>19.61293051</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1379,22 +1382,22 @@
         <v>0.28</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>561432</v>
+        <v>531113</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30">
-        <v>0.256830568445771</v>
+        <v>0.1141386999557502</v>
       </c>
       <c r="G30">
-        <v>-99.3171497</v>
+        <v>-99.30554078999999</v>
       </c>
       <c r="H30">
-        <v>19.61267374</v>
+        <v>19.61159903</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1405,22 +1408,22 @@
         <v>0.28</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>561432</v>
+        <v>531113</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31">
-        <v>0.1992801854262564</v>
+        <v>0.1016675334629431</v>
       </c>
       <c r="G31">
-        <v>-99.31838736</v>
+        <v>-99.3036908</v>
       </c>
       <c r="H31">
-        <v>19.61274609</v>
+        <v>19.61191957</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1431,22 +1434,22 @@
         <v>0.28</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>722513</v>
+        <v>561432</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F32">
-        <v>0.2003295541170494</v>
+        <v>0.1475398764778802</v>
       </c>
       <c r="G32">
-        <v>-99.31835749</v>
+        <v>-99.30315461000001</v>
       </c>
       <c r="H32">
-        <v>19.61274019</v>
+        <v>19.6118419</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1457,22 +1460,22 @@
         <v>0.28</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>722518</v>
+        <v>621211</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33">
-        <v>0.1358753871678812</v>
+        <v>0.1952307823016534</v>
       </c>
       <c r="G33">
-        <v>-99.317605</v>
+        <v>-99.30517585</v>
       </c>
       <c r="H33">
-        <v>19.61375909</v>
+        <v>19.6097546</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1483,22 +1486,22 @@
         <v>0.28</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>722518</v>
+        <v>621211</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F34">
-        <v>0.1251183703403688</v>
+        <v>0.1476792687784494</v>
       </c>
       <c r="G34">
-        <v>-99.31843144</v>
+        <v>-99.30315134</v>
       </c>
       <c r="H34">
-        <v>19.61341355</v>
+        <v>19.61183715</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1509,22 +1512,22 @@
         <v>0.28</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>722518</v>
+        <v>621211</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35">
-        <v>0.207850227399363</v>
+        <v>0.1337278208323528</v>
       </c>
       <c r="G35">
-        <v>-99.31945346000001</v>
+        <v>-99.30319913</v>
       </c>
       <c r="H35">
-        <v>19.61283092</v>
+        <v>19.61139239</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1535,22 +1538,22 @@
         <v>0.28</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>722515</v>
+        <v>722513</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>0.2276138519897176</v>
+        <v>0.2238663600444475</v>
       </c>
       <c r="G36">
-        <v>-99.31984934</v>
+        <v>-99.30315136</v>
       </c>
       <c r="H36">
-        <v>19.6128403</v>
+        <v>19.60980168</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1561,22 +1564,22 @@
         <v>0.28</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>722519</v>
+        <v>722513</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
       </c>
       <c r="F37">
-        <v>0.2304393119523327</v>
+        <v>0.1008462398314259</v>
       </c>
       <c r="G37">
-        <v>-99.31762845</v>
+        <v>-99.30515382</v>
       </c>
       <c r="H37">
-        <v>19.61267322</v>
+        <v>19.61073792</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1587,22 +1590,22 @@
         <v>0.28</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>722517</v>
+        <v>722513</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38">
-        <v>0.1717428049165648</v>
+        <v>0.07649377003526273</v>
       </c>
       <c r="G38">
-        <v>-99.31841251</v>
+        <v>-99.30514459</v>
       </c>
       <c r="H38">
-        <v>19.61299269</v>
+        <v>19.61165808</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1613,22 +1616,22 @@
         <v>0.28</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>722517</v>
+        <v>722519</v>
       </c>
       <c r="E39" t="s">
         <v>75</v>
       </c>
       <c r="F39">
-        <v>0.2049105487863034</v>
+        <v>0.1191516071463</v>
       </c>
       <c r="G39">
-        <v>-99.31804700000001</v>
+        <v>-99.30362656</v>
       </c>
       <c r="H39">
-        <v>19.61276205</v>
+        <v>19.61209475</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1639,22 +1642,22 @@
         <v>0.28</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>722514</v>
+        <v>722518</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40">
-        <v>0.204991767774455</v>
+        <v>0.2086267819613234</v>
       </c>
       <c r="G40">
-        <v>-99.31824275</v>
+        <v>-99.30248447</v>
       </c>
       <c r="H40">
-        <v>19.61271554</v>
+        <v>19.61142179</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1665,22 +1668,22 @@
         <v>0.28</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>722514</v>
+        <v>722515</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41">
-        <v>0.2049620541765604</v>
+        <v>0.1626039688801155</v>
       </c>
       <c r="G41">
-        <v>-99.31939402</v>
+        <v>-99.304079</v>
       </c>
       <c r="H41">
-        <v>19.61283422</v>
+        <v>19.61279556</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1691,22 +1694,22 @@
         <v>0.28</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42">
-        <v>722517</v>
+        <v>722514</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F42">
-        <v>0.2605182741014374</v>
+        <v>0.1445630078647125</v>
       </c>
       <c r="G42">
-        <v>-99.31868128000001</v>
+        <v>-99.30325419</v>
       </c>
       <c r="H42">
-        <v>19.61218325</v>
+        <v>19.61198682</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1717,22 +1720,22 @@
         <v>0.28</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>813210</v>
+        <v>722514</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43">
-        <v>0.2206727710406596</v>
+        <v>0.206939819890046</v>
       </c>
       <c r="G43">
-        <v>-99.31957362999999</v>
+        <v>-99.30258646</v>
       </c>
       <c r="H43">
-        <v>19.61275787</v>
+        <v>19.61192596</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1743,22 +1746,22 @@
         <v>0.28</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44">
-        <v>812110</v>
+        <v>722514</v>
       </c>
       <c r="E44" t="s">
         <v>78</v>
       </c>
       <c r="F44">
-        <v>0.2148613980594728</v>
+        <v>0.2015351579354621</v>
       </c>
       <c r="G44">
-        <v>-99.319599</v>
+        <v>-99.30324097</v>
       </c>
       <c r="H44">
-        <v>19.6128296</v>
+        <v>19.61277176</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1769,22 +1772,22 @@
         <v>0.28</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45">
-        <v>812110</v>
+        <v>722514</v>
       </c>
       <c r="E45" t="s">
         <v>78</v>
       </c>
       <c r="F45">
-        <v>0.2400216149237988</v>
+        <v>0.09221493027612869</v>
       </c>
       <c r="G45">
-        <v>-99.31745244</v>
+        <v>-99.30385536999999</v>
       </c>
       <c r="H45">
-        <v>19.61266546</v>
+        <v>19.61197019</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1795,22 +1798,22 @@
         <v>0.28</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46">
         <v>812110</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>0.2012919254014174</v>
+        <v>0.2651679925434576</v>
       </c>
       <c r="G46">
-        <v>-99.31931252</v>
+        <v>-99.30559072</v>
       </c>
       <c r="H46">
-        <v>19.61283833</v>
+        <v>19.60924082</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1821,22 +1824,22 @@
         <v>0.28</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>811111</v>
+        <v>812110</v>
       </c>
       <c r="E47" t="s">
         <v>79</v>
       </c>
       <c r="F47">
-        <v>0.1295306623891056</v>
+        <v>0.1572000403218827</v>
       </c>
       <c r="G47">
-        <v>-99.31742136</v>
+        <v>-99.30305894999999</v>
       </c>
       <c r="H47">
-        <v>19.61482814</v>
+        <v>19.61091558</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1847,22 +1850,74 @@
         <v>0.28</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>812110</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F48">
-        <v>0.1662673943561661</v>
+        <v>0.212216983057371</v>
       </c>
       <c r="G48">
-        <v>-99.31737964</v>
+        <v>-99.30253537</v>
       </c>
       <c r="H48">
-        <v>19.61546374</v>
+        <v>19.61193079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>0.28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>812110</v>
+      </c>
+      <c r="E49" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49">
+        <v>0.1334913200316774</v>
+      </c>
+      <c r="G49">
+        <v>-99.30545166</v>
+      </c>
+      <c r="H49">
+        <v>19.61060967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>813210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>0.2011949836578928</v>
+      </c>
+      <c r="G50">
+        <v>-99.30261813</v>
+      </c>
+      <c r="H50">
+        <v>19.61092163</v>
       </c>
     </row>
   </sheetData>

--- a/my_app/data/business_suport_acumulated_into_point_interest.xlsx
+++ b/my_app/data/business_suport_acumulated_into_point_interest.xlsx
@@ -13,10 +13,431 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="136">
+  <si>
+    <t>punto_de_interes</t>
+  </si>
+  <si>
+    <t>Radio_influencia</t>
+  </si>
+  <si>
+    <t>Negocio_vecino_encontrado</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Distancia_(m)</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitud</t>
+  </si>
+  <si>
+    <t>19.613352996468_-99.29555253151337</t>
+  </si>
+  <si>
+    <t>PANADERIA ESTRELLA</t>
+  </si>
+  <si>
+    <t>PANADERIA PASTELERIA LA ROCA</t>
+  </si>
+  <si>
+    <t>PANADERÍA SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>PASTELERIA</t>
+  </si>
+  <si>
+    <t>TORTILLERIA</t>
+  </si>
+  <si>
+    <t>TORTILLERÍA LA ANTENA</t>
+  </si>
+  <si>
+    <t>TORTILLERIA LOS PONCHITOS</t>
+  </si>
+  <si>
+    <t>TORTILLERIA MARLENE</t>
+  </si>
+  <si>
+    <t>TORTILLERÍA SAN ISIDRO LA PAZ</t>
+  </si>
+  <si>
+    <t>CANCELERIA</t>
+  </si>
+  <si>
+    <t>HERRERIA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>APLICACIÓN DE SISTEMAS TERMO PLÁSTIC0S</t>
+  </si>
+  <si>
+    <t>BAZAR SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>BODEGA JARCERIA EL PANALITO</t>
+  </si>
+  <si>
+    <t>BOUTIQUE</t>
+  </si>
+  <si>
+    <t>BOUTIQUE ELENA</t>
+  </si>
+  <si>
+    <t>BOUTIQUE MARIANA</t>
+  </si>
+  <si>
+    <t>BOUTIQUE MELLECENS</t>
+  </si>
+  <si>
+    <t>BOUTIQUE SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>CARNICERIA EL BECERRO DE ORO</t>
+  </si>
+  <si>
+    <t>CARNICERIA LA UNICA</t>
+  </si>
+  <si>
+    <t>CARNICERIA LAURA</t>
+  </si>
+  <si>
+    <t>DULCERIA LINDA</t>
+  </si>
+  <si>
+    <t>DULCERIA TOMY</t>
+  </si>
+  <si>
+    <t>ELÉCTRICA PACHIS</t>
+  </si>
+  <si>
+    <t>FARMACIA ECONOFARMA</t>
+  </si>
+  <si>
+    <t>FARMACIA JAER</t>
+  </si>
+  <si>
+    <t>FARMACIA LA CONSENTIDA</t>
+  </si>
+  <si>
+    <t>FARMACIA MAR -SAN</t>
+  </si>
+  <si>
+    <t>FARMACIA MICH</t>
+  </si>
+  <si>
+    <t>FARMACIA SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>FARMACIA SAN JUDAS</t>
+  </si>
+  <si>
+    <t>FRUTAS Y VERDURAS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>JARCERIA EL PANALITO</t>
+  </si>
+  <si>
+    <t>JARCIERÍA</t>
+  </si>
+  <si>
+    <t>JARCIERÍA GABY</t>
+  </si>
+  <si>
+    <t>LA ILUSIÓN DEL BEBE</t>
+  </si>
+  <si>
+    <t>MATERIAS PRIMAS NAOMI</t>
+  </si>
+  <si>
+    <t>MATERIAS PRIMAS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>NOVEDADES VERO</t>
+  </si>
+  <si>
+    <t>PAPELERIA BLANCA NIEVES</t>
+  </si>
+  <si>
+    <t>PAPELERIA BOB</t>
+  </si>
+  <si>
+    <t>PAPELERIA CHARLY</t>
+  </si>
+  <si>
+    <t>PAPELERIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>PAPELERIA EL LAPIZ</t>
+  </si>
+  <si>
+    <t>PAPELERIA FRANCO</t>
+  </si>
+  <si>
+    <t>PAPELERIA HEBER</t>
+  </si>
+  <si>
+    <t>PAPELERÍA LA ANTENA</t>
+  </si>
+  <si>
+    <t>PAPELERIA LEO</t>
+  </si>
+  <si>
+    <t>PAPELERIA LUCERO</t>
+  </si>
+  <si>
+    <t>PAPELERÍA MAFER</t>
+  </si>
+  <si>
+    <t>PAPELERIA MERCERIA Y REGALOS LA GOMITA</t>
+  </si>
+  <si>
+    <t>PAPELERIA MEXICO</t>
+  </si>
+  <si>
+    <t>PAPELERIA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>POLLERIA</t>
+  </si>
+  <si>
+    <t>POLLERIA QUERETARO</t>
+  </si>
+  <si>
+    <t>POLLERÍA Y VERDULERÍA LOS MORALES</t>
+  </si>
+  <si>
+    <t>PRODUCTOS DE LIMPIEZA PROQUIMIC</t>
+  </si>
+  <si>
+    <t>RECAUDERIA LAOS</t>
+  </si>
+  <si>
+    <t>RECAUDERIA SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>ROPA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>TIENDA DE REGALOS</t>
+  </si>
+  <si>
+    <t>TIENDA DE ROPA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>TIENDA NOVEDADES</t>
+  </si>
+  <si>
+    <t>TLAPALERIA</t>
+  </si>
+  <si>
+    <t>TLAPALERIA EL TLAPAS</t>
+  </si>
+  <si>
+    <t>VENTA DE DULCES SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>VENTA DE ROPA ORALÍA</t>
+  </si>
+  <si>
+    <t>VERDULERIA LOS PANCHITOS</t>
+  </si>
+  <si>
+    <t>SALON DE FIESTAS BARNEY</t>
+  </si>
+  <si>
+    <t>SALON DE FIESTAS LOS GIRASOLES</t>
+  </si>
+  <si>
+    <t>CAFE INTERNET XIMENA</t>
+  </si>
+  <si>
+    <t>INTERNET FORREST</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DENTAL SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>VIDEOJUEGOS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>CARNITAS</t>
+  </si>
+  <si>
+    <t>CLUB HERBALIFE</t>
+  </si>
+  <si>
+    <t>COCINA ECONÓMICA SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>COCINA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>COMIDA CORRIDA Y ANTOJITOS</t>
+  </si>
+  <si>
+    <t>HAMBURGUESAS EL BULDOG</t>
+  </si>
+  <si>
+    <t>PIZZAS Y EMPANADAS EL CHEFFCITO</t>
+  </si>
+  <si>
+    <t>QUESADILLAS</t>
+  </si>
+  <si>
+    <t>TAQUERIA SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>VENTA DE CARNITAS SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>AUTO MATRIZ HUGO</t>
+  </si>
+  <si>
+    <t>CAPILLA DE SAN JUAN BAUTISTA</t>
+  </si>
+  <si>
+    <t>CAPILLA SAN ISIDRO LABRADOR</t>
+  </si>
+  <si>
+    <t>ESTETICA BRAYAN</t>
+  </si>
+  <si>
+    <t>ESTETICA JULY</t>
+  </si>
+  <si>
+    <t>ESTETICA KARLA</t>
+  </si>
+  <si>
+    <t>ESTETICA PAOLA</t>
+  </si>
+  <si>
+    <t>ESTETICA SALON KATYA</t>
+  </si>
+  <si>
+    <t>ESTETICA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>ESTETICA STARS</t>
+  </si>
+  <si>
+    <t>HOJALATERIA</t>
+  </si>
+  <si>
+    <t>HOJALATERIA Y PINTURA SIN NOMBRE</t>
+  </si>
+  <si>
+    <t>MECANICA EN GENERAL</t>
+  </si>
+  <si>
+    <t>PELUQUERIA</t>
+  </si>
+  <si>
+    <t>PELUQUERIA MIRANDA</t>
+  </si>
+  <si>
+    <t>Panificación tradicional</t>
+  </si>
+  <si>
+    <t>Elaboración de tortillas de maíz y molienda de nixtamal</t>
+  </si>
+  <si>
+    <t>Fabricación de productos de herrería</t>
+  </si>
+  <si>
+    <t>Comercio al por menor en ferreterías y tlapalerías</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos usados</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos para la limpieza</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de ropa, excepto de bebé y lencería</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de carnes rojas</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de dulces y materias primas para repostería</t>
+  </si>
+  <si>
+    <t>Farmacias sin minisúper</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de frutas y verduras frescas</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de artículos de papelería</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de regalos</t>
+  </si>
+  <si>
+    <t>Comercio al por menor de carne de aves</t>
+  </si>
+  <si>
+    <t>Alquiler sin intermediación de salones para fiestas y convenciones</t>
+  </si>
+  <si>
+    <t>Servicios de acceso a computadoras</t>
+  </si>
+  <si>
+    <t>Consultorios dentales del sector privado</t>
+  </si>
+  <si>
+    <t>Casas de juegos electrónicos</t>
+  </si>
+  <si>
+    <t>Restaurantes con servicio de preparación de antojitos</t>
+  </si>
+  <si>
+    <t>Servicios de preparación de otros alimentos para consumo inmediato</t>
+  </si>
+  <si>
+    <t>Restaurantes que preparan otro tipo de alimentos para llevar</t>
+  </si>
+  <si>
+    <t>Restaurantes con servicio de preparación de pizzas, hamburguesas, hot dogs y pollos rostizados para llevar</t>
+  </si>
+  <si>
+    <t>Restaurantes con servicio de preparación de tacos y tortas</t>
+  </si>
+  <si>
+    <t>Reparación mecánica en general de automóviles y camiones</t>
+  </si>
+  <si>
+    <t>Asociaciones y organizaciones religiosas</t>
+  </si>
+  <si>
+    <t>Salones y clínicas de belleza y peluquerías</t>
+  </si>
+  <si>
+    <t>Hojalatería y pintura de automóviles y camiones</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +453,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +461,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +779,2665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>311812</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2">
+        <v>0.139910314667314</v>
+      </c>
+      <c r="G2">
+        <v>-99.29683119000001</v>
+      </c>
+      <c r="H2">
+        <v>19.61371691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>311812</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3">
+        <v>0.2627068917340032</v>
+      </c>
+      <c r="G3">
+        <v>-99.29546827999999</v>
+      </c>
+      <c r="H3">
+        <v>19.61099175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>311812</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>0.1553680336509965</v>
+      </c>
+      <c r="G4">
+        <v>-99.296094</v>
+      </c>
+      <c r="H4">
+        <v>19.61205216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>311812</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5">
+        <v>0.1107312129887551</v>
+      </c>
+      <c r="G5">
+        <v>-99.29562344999999</v>
+      </c>
+      <c r="H5">
+        <v>19.61235941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>311830</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6">
+        <v>0.1801419013838309</v>
+      </c>
+      <c r="G6">
+        <v>-99.29383269</v>
+      </c>
+      <c r="H6">
+        <v>19.61335328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>311830</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7">
+        <v>0.227768286241003</v>
+      </c>
+      <c r="G7">
+        <v>-99.29653596999999</v>
+      </c>
+      <c r="H7">
+        <v>19.61517992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>311830</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>0.1284044315343322</v>
+      </c>
+      <c r="G8">
+        <v>-99.29487063000001</v>
+      </c>
+      <c r="H8">
+        <v>19.61431263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>311830</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9">
+        <v>0.1571940574815949</v>
+      </c>
+      <c r="G9">
+        <v>-99.29645843</v>
+      </c>
+      <c r="H9">
+        <v>19.61222592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>311830</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10">
+        <v>0.2553053069871613</v>
+      </c>
+      <c r="G10">
+        <v>-99.29328434</v>
+      </c>
+      <c r="H10">
+        <v>19.61419365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>332320</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11">
+        <v>0.1187426709172975</v>
+      </c>
+      <c r="G11">
+        <v>-99.29573949</v>
+      </c>
+      <c r="H11">
+        <v>19.61229974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>332320</v>
+      </c>
+      <c r="E12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>0.1904933302803919</v>
+      </c>
+      <c r="G12">
+        <v>-99.29732799999999</v>
+      </c>
+      <c r="H12">
+        <v>19.61298183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>467111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13">
+        <v>0.2570199052999639</v>
+      </c>
+      <c r="G13">
+        <v>-99.29342914999999</v>
+      </c>
+      <c r="H13">
+        <v>19.61451146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0.28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>466410</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14">
+        <v>0.09309677752691349</v>
+      </c>
+      <c r="G14">
+        <v>-99.29518676000001</v>
+      </c>
+      <c r="H14">
+        <v>19.61258994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>467115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>0.1166857762098178</v>
+      </c>
+      <c r="G15">
+        <v>-99.29666027</v>
+      </c>
+      <c r="H15">
+        <v>19.61324175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>463211</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16">
+        <v>0.2013797044041106</v>
+      </c>
+      <c r="G16">
+        <v>-99.29363325</v>
+      </c>
+      <c r="H16">
+        <v>19.6134594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0.28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>463211</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>0.1280719605111182</v>
+      </c>
+      <c r="G17">
+        <v>-99.29436766000001</v>
+      </c>
+      <c r="H17">
+        <v>19.61306864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0.28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>463211</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18">
+        <v>0.09765089685316679</v>
+      </c>
+      <c r="G18">
+        <v>-99.29536011</v>
+      </c>
+      <c r="H18">
+        <v>19.61249371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>0.28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>463211</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>0.2644168503933433</v>
+      </c>
+      <c r="G19">
+        <v>-99.29308433999999</v>
+      </c>
+      <c r="H19">
+        <v>19.61385214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>463211</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>0.2490527220548063</v>
+      </c>
+      <c r="G20">
+        <v>-99.29320169</v>
+      </c>
+      <c r="H20">
+        <v>19.61368898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>0.28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>461121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21">
+        <v>0.2573565858587693</v>
+      </c>
+      <c r="G21">
+        <v>-99.29315234000001</v>
+      </c>
+      <c r="H21">
+        <v>19.61384792</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>0.28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>461121</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22">
+        <v>0.1746737534314343</v>
+      </c>
+      <c r="G22">
+        <v>-99.29721893</v>
+      </c>
+      <c r="H22">
+        <v>19.61329249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0.28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>461121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>0.1386493662036969</v>
+      </c>
+      <c r="G23">
+        <v>-99.29590063000001</v>
+      </c>
+      <c r="H23">
+        <v>19.61214998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>0.28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>461160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24">
+        <v>0.1013899828144595</v>
+      </c>
+      <c r="G24">
+        <v>-99.29474512</v>
+      </c>
+      <c r="H24">
+        <v>19.61385595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>0.28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>461160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25">
+        <v>0.0928118831199629</v>
+      </c>
+      <c r="G25">
+        <v>-99.29516105</v>
+      </c>
+      <c r="H25">
+        <v>19.6126042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>0.28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>467111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26">
+        <v>0.1672693766408948</v>
+      </c>
+      <c r="G26">
+        <v>-99.29565819</v>
+      </c>
+      <c r="H26">
+        <v>19.61485399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>464111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>0.1647826169198872</v>
+      </c>
+      <c r="G27">
+        <v>-99.29398156000001</v>
+      </c>
+      <c r="H27">
+        <v>19.61327408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>0.28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>464111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <v>0.274758044642478</v>
+      </c>
+      <c r="G28">
+        <v>-99.29328053</v>
+      </c>
+      <c r="H28">
+        <v>19.61458803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>464111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29">
+        <v>0.2634663657300133</v>
+      </c>
+      <c r="G29">
+        <v>-99.29560834999999</v>
+      </c>
+      <c r="H29">
+        <v>19.61098417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>0.28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>464111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30">
+        <v>0.1823955014074794</v>
+      </c>
+      <c r="G30">
+        <v>-99.29729261</v>
+      </c>
+      <c r="H30">
+        <v>19.61341585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0.28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31">
+        <v>464111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31">
+        <v>0.2706527850022045</v>
+      </c>
+      <c r="G31">
+        <v>-99.29720301</v>
+      </c>
+      <c r="H31">
+        <v>19.61522581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>461130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32">
+        <v>0.1595583320444124</v>
+      </c>
+      <c r="G32">
+        <v>-99.29643163</v>
+      </c>
+      <c r="H32">
+        <v>19.61218111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33">
+        <v>464111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33">
+        <v>0.2584550126530739</v>
+      </c>
+      <c r="G33">
+        <v>-99.29319631</v>
+      </c>
+      <c r="H33">
+        <v>19.61404318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>461130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <v>0.1010615401187736</v>
+      </c>
+      <c r="G34">
+        <v>-99.29543786000001</v>
+      </c>
+      <c r="H34">
+        <v>19.61245057</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35">
+        <v>467115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35">
+        <v>0.1340758422153927</v>
+      </c>
+      <c r="G35">
+        <v>-99.29593115999999</v>
+      </c>
+      <c r="H35">
+        <v>19.61220118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>0.28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>465311</v>
+      </c>
+      <c r="E36" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36">
+        <v>0.2165556764959611</v>
+      </c>
+      <c r="G36">
+        <v>-99.29357052</v>
+      </c>
+      <c r="H36">
+        <v>19.61390721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>0.28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <v>467115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>0.1757037015204625</v>
+      </c>
+      <c r="G37">
+        <v>-99.29387523</v>
+      </c>
+      <c r="H37">
+        <v>19.61333065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0.28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38">
+        <v>465912</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38">
+        <v>0.2318865292382899</v>
+      </c>
+      <c r="G38">
+        <v>-99.29346796</v>
+      </c>
+      <c r="H38">
+        <v>19.61405522</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>0.28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>461160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39">
+        <v>0.1522411680927993</v>
+      </c>
+      <c r="G39">
+        <v>-99.29605923</v>
+      </c>
+      <c r="H39">
+        <v>19.61206975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0.28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40">
+        <v>461160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>0.2547395894143523</v>
+      </c>
+      <c r="G40">
+        <v>-99.29331956999999</v>
+      </c>
+      <c r="H40">
+        <v>19.61426078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>0.28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41">
+        <v>465912</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <v>0.2633778892913644</v>
+      </c>
+      <c r="G41">
+        <v>-99.29310132000001</v>
+      </c>
+      <c r="H41">
+        <v>19.61388112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42">
+        <v>465311</v>
+      </c>
+      <c r="E42" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42">
+        <v>0.1755401375801341</v>
+      </c>
+      <c r="G42">
+        <v>-99.29436647999999</v>
+      </c>
+      <c r="H42">
+        <v>19.61223766</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>0.28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>465311</v>
+      </c>
+      <c r="E43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43">
+        <v>0.1957769296234252</v>
+      </c>
+      <c r="G43">
+        <v>-99.29738078</v>
+      </c>
+      <c r="H43">
+        <v>19.61371915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>0.28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>465311</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44">
+        <v>0.232227652503907</v>
+      </c>
+      <c r="G44">
+        <v>-99.29431149</v>
+      </c>
+      <c r="H44">
+        <v>19.61508363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>0.28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>465311</v>
+      </c>
+      <c r="E45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45">
+        <v>0.1488488912161026</v>
+      </c>
+      <c r="G45">
+        <v>-99.29690100000001</v>
+      </c>
+      <c r="H45">
+        <v>19.61293057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>0.28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>465311</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46">
+        <v>0.2091562109796878</v>
+      </c>
+      <c r="G46">
+        <v>-99.2966887</v>
+      </c>
+      <c r="H46">
+        <v>19.61180617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>0.28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>465311</v>
+      </c>
+      <c r="E47" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47">
+        <v>0.2744727361128959</v>
+      </c>
+      <c r="G47">
+        <v>-99.29564734</v>
+      </c>
+      <c r="H47">
+        <v>19.61088622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>0.28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>465311</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48">
+        <v>0.1872288146771165</v>
+      </c>
+      <c r="G48">
+        <v>-99.29376544</v>
+      </c>
+      <c r="H48">
+        <v>19.61338906</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>0.28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>465311</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49">
+        <v>0.2627967908457892</v>
+      </c>
+      <c r="G49">
+        <v>-99.29643780000001</v>
+      </c>
+      <c r="H49">
+        <v>19.61556438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>0.28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50">
+        <v>465311</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <v>0.1340758422153927</v>
+      </c>
+      <c r="G50">
+        <v>-99.29593115999999</v>
+      </c>
+      <c r="H50">
+        <v>19.61220118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>0.28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>465311</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51">
+        <v>0.2277166810753646</v>
+      </c>
+      <c r="G51">
+        <v>-99.29642505</v>
+      </c>
+      <c r="H51">
+        <v>19.61522874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>0.28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>465311</v>
+      </c>
+      <c r="E52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52">
+        <v>0.1792648034425578</v>
+      </c>
+      <c r="G52">
+        <v>-99.29632137</v>
+      </c>
+      <c r="H52">
+        <v>19.61191266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>0.28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>465311</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>0.2585655183962712</v>
+      </c>
+      <c r="G53">
+        <v>-99.2936395</v>
+      </c>
+      <c r="H53">
+        <v>19.61482265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54">
+        <v>465311</v>
+      </c>
+      <c r="E54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54">
+        <v>0.1517310996739002</v>
+      </c>
+      <c r="G54">
+        <v>-99.29411254999999</v>
+      </c>
+      <c r="H54">
+        <v>19.61320438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>0.28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55">
+        <v>465311</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55">
+        <v>0.2532042922104105</v>
+      </c>
+      <c r="G55">
+        <v>-99.29369389999999</v>
+      </c>
+      <c r="H55">
+        <v>19.61480903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>0.28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>461122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56">
+        <v>0.138123138792529</v>
+      </c>
+      <c r="G56">
+        <v>-99.29425560999999</v>
+      </c>
+      <c r="H56">
+        <v>19.61312827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0.28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>461122</v>
+      </c>
+      <c r="E57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57">
+        <v>0.1581493694671474</v>
+      </c>
+      <c r="G57">
+        <v>-99.29699847000001</v>
+      </c>
+      <c r="H57">
+        <v>19.6129435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>0.28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58">
+        <v>461122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58">
+        <v>0.2785732201567335</v>
+      </c>
+      <c r="G58">
+        <v>-99.29394635</v>
+      </c>
+      <c r="H58">
+        <v>19.61534981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>0.28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>467115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59">
+        <v>0.23499338563683</v>
+      </c>
+      <c r="G59">
+        <v>-99.29779068000001</v>
+      </c>
+      <c r="H59">
+        <v>19.6132069</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>0.28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>461130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60">
+        <v>0.1471419978369802</v>
+      </c>
+      <c r="G60">
+        <v>-99.29684944</v>
+      </c>
+      <c r="H60">
+        <v>19.61284446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>0.28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61">
+        <v>461130</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61">
+        <v>0.265847566947727</v>
+      </c>
+      <c r="G61">
+        <v>-99.29306212</v>
+      </c>
+      <c r="H61">
+        <v>19.61381423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>0.28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62">
+        <v>463211</v>
+      </c>
+      <c r="E62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62">
+        <v>0.169721731003255</v>
+      </c>
+      <c r="G62">
+        <v>-99.29398993</v>
+      </c>
+      <c r="H62">
+        <v>19.61375689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0.28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63">
+        <v>465912</v>
+      </c>
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63">
+        <v>0.1757037015204625</v>
+      </c>
+      <c r="G63">
+        <v>-99.29387523</v>
+      </c>
+      <c r="H63">
+        <v>19.61333065</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>0.28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64">
+        <v>463211</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64">
+        <v>0.09419224445734888</v>
+      </c>
+      <c r="G64">
+        <v>-99.29524793</v>
+      </c>
+      <c r="H64">
+        <v>19.61255598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>0.28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65">
+        <v>461160</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65">
+        <v>0.09968149614617305</v>
+      </c>
+      <c r="G65">
+        <v>-99.29512176999999</v>
+      </c>
+      <c r="H65">
+        <v>19.61255363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>0.28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66">
+        <v>467111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66">
+        <v>0.2144007287907348</v>
+      </c>
+      <c r="G66">
+        <v>-99.29673717999999</v>
+      </c>
+      <c r="H66">
+        <v>19.61178058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>0.28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67">
+        <v>467111</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67">
+        <v>0.1823010896303237</v>
+      </c>
+      <c r="G67">
+        <v>-99.29622694</v>
+      </c>
+      <c r="H67">
+        <v>19.61184161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>0.28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>461160</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68">
+        <v>0.2749190640600728</v>
+      </c>
+      <c r="G68">
+        <v>-99.2938985</v>
+      </c>
+      <c r="H68">
+        <v>19.6152727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.28</v>
+      </c>
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69">
+        <v>463211</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69">
+        <v>0.2755312793320514</v>
+      </c>
+      <c r="G69">
+        <v>-99.29309735</v>
+      </c>
+      <c r="H69">
+        <v>19.61424258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>0.28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70">
+        <v>461130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70">
+        <v>0.1677033138658902</v>
+      </c>
+      <c r="G70">
+        <v>-99.29715362</v>
+      </c>
+      <c r="H70">
+        <v>19.61335313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0.28</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71">
+        <v>531113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71">
+        <v>0.07631274977795685</v>
+      </c>
+      <c r="G71">
+        <v>-99.29487036</v>
+      </c>
+      <c r="H71">
+        <v>19.613112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>0.28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72">
+        <v>531113</v>
+      </c>
+      <c r="E72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F72">
+        <v>0.2178023116797111</v>
+      </c>
+      <c r="G72">
+        <v>-99.29595397999999</v>
+      </c>
+      <c r="H72">
+        <v>19.61527489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>0.28</v>
+      </c>
+      <c r="C73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73">
+        <v>561432</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73">
+        <v>0.1672349683086395</v>
+      </c>
+      <c r="G73">
+        <v>-99.29622178</v>
+      </c>
+      <c r="H73">
+        <v>19.61198752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>0.28</v>
+      </c>
+      <c r="C74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74">
+        <v>561432</v>
+      </c>
+      <c r="E74" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74">
+        <v>0.1465331291625964</v>
+      </c>
+      <c r="G74">
+        <v>-99.2966632</v>
+      </c>
+      <c r="H74">
+        <v>19.61255174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>0.28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75">
+        <v>621211</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75">
+        <v>0.09962288882116777</v>
+      </c>
+      <c r="G75">
+        <v>-99.29500638</v>
+      </c>
+      <c r="H75">
+        <v>19.6126195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>0.28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76">
+        <v>621211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76">
+        <v>0.1590153445926324</v>
+      </c>
+      <c r="G76">
+        <v>-99.29701545</v>
+      </c>
+      <c r="H76">
+        <v>19.6129708</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>0.28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77">
+        <v>713120</v>
+      </c>
+      <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77">
+        <v>0.1555472769525076</v>
+      </c>
+      <c r="G77">
+        <v>-99.29693408</v>
+      </c>
+      <c r="H77">
+        <v>19.61283995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>0.28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78">
+        <v>722513</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78">
+        <v>0.1323681170338921</v>
+      </c>
+      <c r="G78">
+        <v>-99.29431893</v>
+      </c>
+      <c r="H78">
+        <v>19.61309458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>0.28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>722519</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F79">
+        <v>0.1629781605593829</v>
+      </c>
+      <c r="G79">
+        <v>-99.29624432</v>
+      </c>
+      <c r="H79">
+        <v>19.61204013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>0.28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80">
+        <v>722518</v>
+      </c>
+      <c r="E80" t="s">
+        <v>129</v>
+      </c>
+      <c r="F80">
+        <v>0.24376444740403</v>
+      </c>
+      <c r="G80">
+        <v>-99.2932488</v>
+      </c>
+      <c r="H80">
+        <v>19.61366392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>0.28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81">
+        <v>722518</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81">
+        <v>0.1187426709172975</v>
+      </c>
+      <c r="G81">
+        <v>-99.29573949</v>
+      </c>
+      <c r="H81">
+        <v>19.61229974</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>0.28</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82">
+        <v>722518</v>
+      </c>
+      <c r="E82" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82">
+        <v>0.2539429849015863</v>
+      </c>
+      <c r="G82">
+        <v>-99.2931487</v>
+      </c>
+      <c r="H82">
+        <v>19.61365009</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>0.28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83">
+        <v>722517</v>
+      </c>
+      <c r="E83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83">
+        <v>0.2413135212341938</v>
+      </c>
+      <c r="G83">
+        <v>-99.29326229999999</v>
+      </c>
+      <c r="H83">
+        <v>19.61358868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>0.28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84">
+        <v>722517</v>
+      </c>
+      <c r="E84" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84">
+        <v>0.2656348331420524</v>
+      </c>
+      <c r="G84">
+        <v>-99.29551476</v>
+      </c>
+      <c r="H84">
+        <v>19.61096435</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>0.28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85">
+        <v>722513</v>
+      </c>
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85">
+        <v>0.09689118000022563</v>
+      </c>
+      <c r="G85">
+        <v>-99.29470768</v>
+      </c>
+      <c r="H85">
+        <v>19.61299814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>0.28</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86">
+        <v>722514</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86">
+        <v>0.2737003578557198</v>
+      </c>
+      <c r="G86">
+        <v>-99.2929726</v>
+      </c>
+      <c r="H86">
+        <v>19.61374371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>0.28</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87">
+        <v>722513</v>
+      </c>
+      <c r="E87" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87">
+        <v>0.1845403435936707</v>
+      </c>
+      <c r="G87">
+        <v>-99.29641271</v>
+      </c>
+      <c r="H87">
+        <v>19.61190463</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>0.28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D88">
+        <v>811111</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88">
+        <v>0.2344227797212577</v>
+      </c>
+      <c r="G88">
+        <v>-99.29482899999999</v>
+      </c>
+      <c r="H88">
+        <v>19.61135799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>0.28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89">
+        <v>813210</v>
+      </c>
+      <c r="E89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89">
+        <v>0.1123971315015348</v>
+      </c>
+      <c r="G89">
+        <v>-99.29662553999999</v>
+      </c>
+      <c r="H89">
+        <v>19.61334199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>0.28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90">
+        <v>813210</v>
+      </c>
+      <c r="E90" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90">
+        <v>0.1592079756652878</v>
+      </c>
+      <c r="G90">
+        <v>-99.29520578</v>
+      </c>
+      <c r="H90">
+        <v>19.61195896</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>0.28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91">
+        <v>812110</v>
+      </c>
+      <c r="E91" t="s">
+        <v>134</v>
+      </c>
+      <c r="F91">
+        <v>0.2576721912781434</v>
+      </c>
+      <c r="G91">
+        <v>-99.29321491</v>
+      </c>
+      <c r="H91">
+        <v>19.6140749</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>0.28</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92">
+        <v>812110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>134</v>
+      </c>
+      <c r="F92">
+        <v>0.1668648057183078</v>
+      </c>
+      <c r="G92">
+        <v>-99.29635824</v>
+      </c>
+      <c r="H92">
+        <v>19.61205842</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>0.28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93">
+        <v>812110</v>
+      </c>
+      <c r="E93" t="s">
+        <v>134</v>
+      </c>
+      <c r="F93">
+        <v>0.2350450115450085</v>
+      </c>
+      <c r="G93">
+        <v>-99.29503991</v>
+      </c>
+      <c r="H93">
+        <v>19.61129508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>0.28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D94">
+        <v>812110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>134</v>
+      </c>
+      <c r="F94">
+        <v>0.2329125348260228</v>
+      </c>
+      <c r="G94">
+        <v>-99.29590417</v>
+      </c>
+      <c r="H94">
+        <v>19.61128472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>0.28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95">
+        <v>812110</v>
+      </c>
+      <c r="E95" t="s">
+        <v>134</v>
+      </c>
+      <c r="F95">
+        <v>0.2560082743712692</v>
+      </c>
+      <c r="G95">
+        <v>-99.29707351</v>
+      </c>
+      <c r="H95">
+        <v>19.61155077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>0.28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96">
+        <v>812110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>134</v>
+      </c>
+      <c r="F96">
+        <v>0.1256417005590976</v>
+      </c>
+      <c r="G96">
+        <v>-99.29582929</v>
+      </c>
+      <c r="H96">
+        <v>19.61225356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>0.28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97">
+        <v>812110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97">
+        <v>0.1096084844312913</v>
+      </c>
+      <c r="G97">
+        <v>-99.29543786000001</v>
+      </c>
+      <c r="H97">
+        <v>19.6123732</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0.28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>811121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>135</v>
+      </c>
+      <c r="F98">
+        <v>0.1302636705482003</v>
+      </c>
+      <c r="G98">
+        <v>-99.29678219</v>
+      </c>
+      <c r="H98">
+        <v>19.61317779</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>0.28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99">
+        <v>811121</v>
+      </c>
+      <c r="E99" t="s">
+        <v>135</v>
+      </c>
+      <c r="F99">
+        <v>0.2566591072725073</v>
+      </c>
+      <c r="G99">
+        <v>-99.29583184000001</v>
+      </c>
+      <c r="H99">
+        <v>19.61105985</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>0.28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100">
+        <v>811111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>132</v>
+      </c>
+      <c r="F100">
+        <v>0.08400849719235097</v>
+      </c>
+      <c r="G100">
+        <v>-99.29478446</v>
+      </c>
+      <c r="H100">
+        <v>19.61313545</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>0.28</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+      <c r="D101">
+        <v>812110</v>
+      </c>
+      <c r="E101" t="s">
+        <v>134</v>
+      </c>
+      <c r="F101">
+        <v>0.1942825897535436</v>
+      </c>
+      <c r="G101">
+        <v>-99.29686585</v>
+      </c>
+      <c r="H101">
+        <v>19.61458683</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>0.28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>812110</v>
+      </c>
+      <c r="E102" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102">
+        <v>0.1750871878852013</v>
+      </c>
+      <c r="G102">
+        <v>-99.29565169999999</v>
+      </c>
+      <c r="H102">
+        <v>19.61492482</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>